--- a/resultados_p1.xlsx
+++ b/resultados_p1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Cosas\Universidad\11° Semestre\Operación Económica\Operacion-Economica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F679D51-0E68-4137-A804-F04D27B6D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Estado ON-OFF" sheetId="2" r:id="rId2"/>
-    <sheet name="Generación" sheetId="3" r:id="rId3"/>
-    <sheet name="Costos" sheetId="4" r:id="rId4"/>
+    <sheet name="Estado ON-OFF" r:id="rId4" sheetId="2"/>
+    <sheet name="Generación" r:id="rId5" sheetId="3"/>
+    <sheet name="Costos" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Hora</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Generador 7</t>
+  </si>
+  <si>
+    <t>Demanda horaria</t>
   </si>
   <si>
     <t>Variable</t>
@@ -125,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,33 +416,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2E5552-FF33-4CBF-919C-762896CC90FA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EEB053-D658-4396-BCB8-888B48666819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,628 +468,628 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1095,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650E04E9-24C9-45C9-A608-EBCFEABD3B6F}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,117 +1130,132 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C2">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D2">
         <v>52.83297191515399</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
         <v>31.167028084846212</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>258.99999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.941418522032436</v>
+        <v>98.94141852203244</v>
       </c>
       <c r="C3">
         <v>52.499999999999986</v>
       </c>
       <c r="D3">
-        <v>30.332971915154339</v>
+        <v>30.33297191515434</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
         <v>29.425609562813513</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>211.20000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C4">
-        <v>50.094737398499838</v>
+        <v>50.09473739849984</v>
       </c>
       <c r="D4">
-        <v>7.8329719151546939</v>
+        <v>7.832971915154694</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
         <v>27.672290686345676</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>185.60000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C5">
-        <v>30.267747395165252</v>
+        <v>30.26774739516525</v>
       </c>
       <c r="D5">
         <v>7.4999999999998765</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
         <v>28.632252604835134</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>166.40000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98.117104776268107</v>
+        <v>98.1171047762681</v>
       </c>
       <c r="C6">
         <v>25.631490982206827</v>
@@ -1246,24 +1264,27 @@
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
         <v>28.751256148226485</v>
       </c>
       <c r="H6">
-        <v>1.4809329877823026E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.00014809329877823026</v>
+      </c>
+      <c r="I6">
+        <v>160.00000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C7">
         <v>48.13149098220677</v>
@@ -1272,24 +1293,27 @@
         <v>7.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
         <v>29.223303538341348</v>
       </c>
       <c r="H7">
-        <v>7.1452054794520539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.145205479452054</v>
+      </c>
+      <c r="I7">
+        <v>192.00000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C8">
         <v>55.748045697290195</v>
@@ -1298,10 +1322,10 @@
         <v>7.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
         <v>28.636219389714864</v>
@@ -1309,51 +1333,57 @@
       <c r="H8">
         <v>32.11573491299513</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>224.00000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C9">
-        <v>74.999999999999915</v>
+        <v>74.99999999999991</v>
       </c>
       <c r="D9">
-        <v>8.7692181907237146</v>
+        <v>8.769218190723715</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>29.738985560973511</v>
+        <v>29.73898556097351</v>
       </c>
       <c r="H9">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>249.60000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C10">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D10">
-        <v>20.886931207143391</v>
+        <v>20.88693120714339</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
         <v>30.42127254455378</v>
@@ -1361,77 +1391,86 @@
       <c r="H10">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>262.40000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C11">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D11">
-        <v>38.742191163703978</v>
+        <v>38.74219116370398</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>31.766012587993242</v>
+        <v>31.76601258799324</v>
       </c>
       <c r="H11">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>281.6000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C12">
-        <v>74.999999999999972</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="D12">
         <v>40.577617196299315</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
-        <v>33.130586555397841</v>
+        <v>33.13058655539784</v>
       </c>
       <c r="H12">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>284.80000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C13">
-        <v>74.999999999999957</v>
+        <v>74.99999999999996</v>
       </c>
       <c r="D13">
         <v>23.400804375724494</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13">
         <v>34.3073993759728</v>
@@ -1439,25 +1478,28 @@
       <c r="H13">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>268.80000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C14">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D14">
         <v>10.600804375724474</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14">
         <v>34.3073993759728</v>
@@ -1465,25 +1507,28 @@
       <c r="H14">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>256.00000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C15">
-        <v>59.099999999999831</v>
+        <v>59.09999999999983</v>
       </c>
       <c r="D15">
         <v>13.700804375724449</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
         <v>34.3073993759728</v>
@@ -1491,25 +1536,28 @@
       <c r="H15">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>243.20000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C16">
-        <v>74.999999999999972</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="D16">
-        <v>36.200804375724253</v>
+        <v>36.20080437572425</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
         <v>34.3073993759728</v>
@@ -1517,25 +1565,28 @@
       <c r="H16">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>281.6000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C17">
-        <v>74.999999999999957</v>
+        <v>74.99999999999996</v>
       </c>
       <c r="D17">
-        <v>42.600804375724287</v>
+        <v>42.60080437572429</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G17">
         <v>34.3073993759728</v>
@@ -1543,25 +1594,28 @@
       <c r="H17">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>288.0000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C18">
-        <v>63.341043440700851</v>
+        <v>63.34104344070085</v>
       </c>
       <c r="D18">
-        <v>38.259760935023579</v>
+        <v>38.25976093502358</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
         <v>34.3073993759728</v>
@@ -1569,25 +1623,28 @@
       <c r="H18">
         <v>36.091796248303055</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>272.00000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C19">
-        <v>74.999999999999915</v>
+        <v>74.99999999999991</v>
       </c>
       <c r="D19">
-        <v>60.759760935023401</v>
+        <v>60.7597609350234</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
         <v>34.3073993759728</v>
@@ -1595,161 +1652,182 @@
       <c r="H19">
         <v>14.732839689004052</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>284.80000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C20">
-        <v>74.999999999999915</v>
+        <v>74.99999999999991</v>
       </c>
       <c r="D20">
-        <v>74.999999999999972</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="E20">
         <v>15.870460675860121</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
         <v>34.3073993759728</v>
       </c>
       <c r="H20">
-        <v>0.62213994816734319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.6221399481673432</v>
+      </c>
+      <c r="I20">
+        <v>300.8000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C21">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D21">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="E21">
         <v>29.292600624027642</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
         <v>34.3073993759728</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I21">
+        <v>313.6000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C22">
-        <v>74.999999999999972</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="E22">
         <v>35.692600624026774</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
         <v>34.3073993759728</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I22">
+        <v>320.00000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C23">
-        <v>74.999999999999957</v>
+        <v>74.99999999999996</v>
       </c>
       <c r="D23">
-        <v>65.499999999999446</v>
+        <v>65.49999999999945</v>
       </c>
       <c r="E23">
         <v>13.192600624027444</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
         <v>34.3073993759728</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I23">
+        <v>288.0000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C24">
-        <v>74.999999999999929</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D24">
-        <v>70.896165441548121</v>
+        <v>70.89616544154812</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24">
-        <v>32.503834558452162</v>
+        <v>32.50383455845216</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0</v>
+      </c>
+      <c r="I24">
+        <v>278.40000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C25">
-        <v>74.999999999999986</v>
+        <v>74.99999999999999</v>
       </c>
       <c r="D25">
         <v>56.193304067182915</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G25">
         <v>31.206695932817297</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="I25">
+        <v>262.40000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1758,56 +1836,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C24CE8F-2BF4-4FF0-B79A-1A16F7AD30F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>218792.88691128805</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37800.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>171242.88691128811</v>
+        <v>171242.8869112881</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_p1.xlsx
+++ b/resultados_p1.xlsx
@@ -1166,7 +1166,7 @@
         <v>1.0</v>
       </c>
       <c r="S2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2">
         <v>1.0</v>
@@ -1175,7 +1175,7 @@
         <v>1.0</v>
       </c>
       <c r="V2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2">
         <v>1.0</v>
@@ -1196,61 +1196,61 @@
         <v>0.0</v>
       </c>
       <c r="AC2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP2">
         <v>0.0</v>
       </c>
       <c r="AQ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV2">
         <v>0.0</v>
@@ -1259,19 +1259,19 @@
         <v>0.0</v>
       </c>
       <c r="AX2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2">
         <v>0.0</v>
       </c>
       <c r="AZ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA2">
         <v>0.0</v>
       </c>
       <c r="BB2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC2">
         <v>0.0</v>
@@ -1498,7 +1498,7 @@
         <v>1.0</v>
       </c>
       <c r="N3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O3">
         <v>1.0</v>
@@ -1522,7 +1522,7 @@
         <v>1.0</v>
       </c>
       <c r="V3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3">
         <v>1.0</v>
@@ -1531,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="Y3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z3">
         <v>0.0</v>
@@ -1540,7 +1540,7 @@
         <v>0.0</v>
       </c>
       <c r="AB3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC3">
         <v>0.0</v>
@@ -1561,10 +1561,10 @@
         <v>0.0</v>
       </c>
       <c r="AI3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK3">
         <v>0.0</v>
@@ -1579,10 +1579,10 @@
         <v>0.0</v>
       </c>
       <c r="AO3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ3">
         <v>0.0</v>
@@ -1597,7 +1597,7 @@
         <v>0.0</v>
       </c>
       <c r="AU3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV3">
         <v>0.0</v>
@@ -1618,7 +1618,7 @@
         <v>0.0</v>
       </c>
       <c r="BB3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC3">
         <v>0.0</v>
@@ -1884,7 +1884,7 @@
         <v>0.0</v>
       </c>
       <c r="AA4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB4">
         <v>0.0</v>
@@ -1911,22 +1911,22 @@
         <v>0.0</v>
       </c>
       <c r="AJ4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK4">
         <v>0.0</v>
       </c>
       <c r="AL4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM4">
         <v>0.0</v>
       </c>
       <c r="AN4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP4">
         <v>0.0</v>
@@ -1944,13 +1944,13 @@
         <v>0.0</v>
       </c>
       <c r="AU4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX4">
         <v>0.0</v>
@@ -1965,7 +1965,7 @@
         <v>0.0</v>
       </c>
       <c r="BB4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC4">
         <v>0.0</v>
@@ -2237,25 +2237,25 @@
         <v>0.0</v>
       </c>
       <c r="AC5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5">
         <v>0.0</v>
@@ -2270,10 +2270,10 @@
         <v>0.0</v>
       </c>
       <c r="AN5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP5">
         <v>0.0</v>
@@ -2282,37 +2282,37 @@
         <v>0.0</v>
       </c>
       <c r="AR5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC5">
         <v>0.0</v>
@@ -2581,19 +2581,19 @@
         <v>0.0</v>
       </c>
       <c r="AB6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG6">
         <v>0.0</v>
@@ -2602,25 +2602,25 @@
         <v>0.0</v>
       </c>
       <c r="AI6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP6">
         <v>0.0</v>
@@ -2629,37 +2629,37 @@
         <v>0.0</v>
       </c>
       <c r="AR6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY6">
         <v>0.0</v>
       </c>
       <c r="AZ6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA6">
         <v>0.0</v>
       </c>
       <c r="BB6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC6">
         <v>0.0</v>
@@ -2898,7 +2898,7 @@
         <v>0.0</v>
       </c>
       <c r="R7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7">
         <v>0.0</v>
@@ -2925,88 +2925,88 @@
         <v>0.0</v>
       </c>
       <c r="AA7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7">
         <v>0.0</v>
       </c>
       <c r="AQ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7">
         <v>0.0</v>
@@ -3224,7 +3224,7 @@
         <v>1.0</v>
       </c>
       <c r="K8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
         <v>1.0</v>
@@ -3239,13 +3239,13 @@
         <v>1.0</v>
       </c>
       <c r="P8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8">
         <v>0.0</v>
@@ -3275,85 +3275,85 @@
         <v>0.0</v>
       </c>
       <c r="AB8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8">
         <v>0.0</v>
       </c>
       <c r="AQ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8">
         <v>0.0</v>
       </c>
       <c r="AW8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8">
         <v>0.0</v>
@@ -3571,13 +3571,13 @@
         <v>1.0</v>
       </c>
       <c r="K9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9">
         <v>1.0</v>
       </c>
       <c r="M9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9">
         <v>0.0</v>
@@ -3586,16 +3586,16 @@
         <v>1.0</v>
       </c>
       <c r="P9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9">
         <v>0.0</v>
       </c>
       <c r="R9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9">
         <v>1.0</v>
@@ -3616,94 +3616,94 @@
         <v>0.0</v>
       </c>
       <c r="Z9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD9">
         <v>1.0</v>
@@ -3924,25 +3924,25 @@
         <v>1.0</v>
       </c>
       <c r="M10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10">
         <v>1.0</v>
@@ -3951,7 +3951,7 @@
         <v>1.0</v>
       </c>
       <c r="V10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
         <v>1.0</v>
@@ -3963,94 +3963,94 @@
         <v>0.0</v>
       </c>
       <c r="Z10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD10">
         <v>1.0</v>
@@ -4277,16 +4277,16 @@
         <v>0.0</v>
       </c>
       <c r="O11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11">
         <v>0.0</v>
       </c>
       <c r="R11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11">
         <v>0.0</v>
@@ -4295,109 +4295,109 @@
         <v>1.0</v>
       </c>
       <c r="U11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X11">
         <v>1.0</v>
       </c>
       <c r="Y11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11">
         <v>1.0</v>
@@ -4621,13 +4621,13 @@
         <v>0.0</v>
       </c>
       <c r="N12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12">
         <v>0.0</v>
@@ -4639,7 +4639,7 @@
         <v>0.0</v>
       </c>
       <c r="T12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12">
         <v>0.0</v>
@@ -4648,103 +4648,103 @@
         <v>0.0</v>
       </c>
       <c r="W12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12">
         <v>0.0</v>
       </c>
       <c r="Y12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12">
         <v>1.0</v>
@@ -4968,19 +4968,19 @@
         <v>0.0</v>
       </c>
       <c r="N13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13">
         <v>0.0</v>
       </c>
       <c r="R13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S13">
         <v>0.0</v>
@@ -4989,7 +4989,7 @@
         <v>0.0</v>
       </c>
       <c r="U13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13">
         <v>0.0</v>
@@ -5001,94 +5001,94 @@
         <v>0.0</v>
       </c>
       <c r="Y13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO13">
         <v>0.0</v>
       </c>
       <c r="AP13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13">
         <v>0.0</v>
@@ -5318,16 +5318,16 @@
         <v>0.0</v>
       </c>
       <c r="O14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14">
         <v>0.0</v>
       </c>
       <c r="R14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14">
         <v>0.0</v>
@@ -5348,97 +5348,97 @@
         <v>0.0</v>
       </c>
       <c r="Y14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14">
         <v>1.0</v>
       </c>
       <c r="AB14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO14">
         <v>0.0</v>
       </c>
       <c r="AP14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT14">
         <v>0.0</v>
       </c>
       <c r="AU14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD14">
         <v>1.0</v>
@@ -5665,16 +5665,16 @@
         <v>0.0</v>
       </c>
       <c r="O15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15">
         <v>0.0</v>
       </c>
       <c r="R15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15">
         <v>0.0</v>
@@ -5695,46 +5695,46 @@
         <v>0.0</v>
       </c>
       <c r="Y15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA15">
         <v>1.0</v>
       </c>
       <c r="AB15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM15">
         <v>0.0</v>
@@ -5746,22 +5746,22 @@
         <v>0.0</v>
       </c>
       <c r="AP15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT15">
         <v>0.0</v>
       </c>
       <c r="AU15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV15">
         <v>0.0</v>
@@ -5770,22 +5770,22 @@
         <v>0.0</v>
       </c>
       <c r="AX15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD15">
         <v>1.0</v>
@@ -6015,28 +6015,28 @@
         <v>0.0</v>
       </c>
       <c r="P16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16">
         <v>0.0</v>
       </c>
       <c r="R16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16">
         <v>1.0</v>
       </c>
       <c r="U16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X16">
         <v>0.0</v>
@@ -6051,37 +6051,37 @@
         <v>1.0</v>
       </c>
       <c r="AB16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI16">
         <v>0.0</v>
       </c>
       <c r="AJ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM16">
         <v>0.0</v>
@@ -6093,22 +6093,22 @@
         <v>0.0</v>
       </c>
       <c r="AP16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT16">
         <v>0.0</v>
       </c>
       <c r="AU16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV16">
         <v>0.0</v>
@@ -6117,22 +6117,22 @@
         <v>0.0</v>
       </c>
       <c r="AX16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD16">
         <v>1.0</v>
@@ -6347,13 +6347,13 @@
         <v>0.0</v>
       </c>
       <c r="K17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17">
         <v>1.0</v>
       </c>
       <c r="M17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17">
         <v>0.0</v>
@@ -6362,13 +6362,13 @@
         <v>0.0</v>
       </c>
       <c r="P17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17">
         <v>0.0</v>
       </c>
       <c r="R17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17">
         <v>1.0</v>
@@ -6380,7 +6380,7 @@
         <v>0.0</v>
       </c>
       <c r="V17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17">
         <v>0.0</v>
@@ -6398,88 +6398,88 @@
         <v>1.0</v>
       </c>
       <c r="AB17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI17">
         <v>0.0</v>
       </c>
       <c r="AJ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN17">
         <v>0.0</v>
       </c>
       <c r="AO17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU17">
         <v>0.0</v>
       </c>
       <c r="AV17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY17">
         <v>0.0</v>
       </c>
       <c r="AZ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD17">
         <v>1.0</v>
@@ -6694,7 +6694,7 @@
         <v>0.0</v>
       </c>
       <c r="K18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18">
         <v>1.0</v>
@@ -6712,7 +6712,7 @@
         <v>0.0</v>
       </c>
       <c r="Q18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18">
         <v>0.0</v>
@@ -6739,94 +6739,94 @@
         <v>0.0</v>
       </c>
       <c r="Z18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18">
         <v>1.0</v>
       </c>
       <c r="AB18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI18">
         <v>0.0</v>
       </c>
       <c r="AJ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN18">
         <v>0.0</v>
       </c>
       <c r="AO18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT18">
         <v>0.0</v>
       </c>
       <c r="AU18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18">
         <v>1.0</v>
@@ -7038,7 +7038,7 @@
         <v>1.0</v>
       </c>
       <c r="J19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19">
         <v>0.0</v>
@@ -7050,7 +7050,7 @@
         <v>0.0</v>
       </c>
       <c r="N19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O19">
         <v>0.0</v>
@@ -7089,91 +7089,91 @@
         <v>0.0</v>
       </c>
       <c r="AA19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19">
         <v>0.0</v>
       </c>
       <c r="AJ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN19">
         <v>0.0</v>
       </c>
       <c r="AO19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT19">
         <v>0.0</v>
       </c>
       <c r="AU19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD19">
         <v>1.0</v>
@@ -7394,13 +7394,13 @@
         <v>1.0</v>
       </c>
       <c r="M20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20">
         <v>0.0</v>
       </c>
       <c r="O20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P20">
         <v>0.0</v>
@@ -7412,7 +7412,7 @@
         <v>0.0</v>
       </c>
       <c r="S20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20">
         <v>1.0</v>
@@ -7439,88 +7439,88 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN20">
         <v>0.0</v>
       </c>
       <c r="AO20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT20">
         <v>0.0</v>
       </c>
       <c r="AU20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD20">
         <v>1.0</v>
@@ -7777,97 +7777,97 @@
         <v>0.0</v>
       </c>
       <c r="Y21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ21">
         <v>0.0</v>
       </c>
       <c r="AK21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD21">
         <v>1.0</v>
@@ -8079,31 +8079,31 @@
         <v>1.0</v>
       </c>
       <c r="J22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22">
         <v>1.0</v>
       </c>
       <c r="M22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22">
         <v>0.0</v>
       </c>
       <c r="P22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22">
         <v>0.0</v>
@@ -8112,7 +8112,7 @@
         <v>1.0</v>
       </c>
       <c r="U22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22">
         <v>0.0</v>
@@ -8124,97 +8124,97 @@
         <v>0.0</v>
       </c>
       <c r="Y22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD22">
         <v>1.0</v>
@@ -8426,7 +8426,7 @@
         <v>1.0</v>
       </c>
       <c r="J23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23">
         <v>0.0</v>
@@ -8435,31 +8435,31 @@
         <v>1.0</v>
       </c>
       <c r="M23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23">
         <v>1.0</v>
       </c>
       <c r="U23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23">
         <v>0.0</v>
@@ -8471,97 +8471,97 @@
         <v>0.0</v>
       </c>
       <c r="Y23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23">
         <v>1.0</v>
@@ -8773,43 +8773,43 @@
         <v>1.0</v>
       </c>
       <c r="J24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24">
         <v>1.0</v>
       </c>
       <c r="M24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T24">
         <v>1.0</v>
       </c>
       <c r="U24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24">
         <v>0.0</v>
@@ -8824,91 +8824,91 @@
         <v>0.0</v>
       </c>
       <c r="AA24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW24">
         <v>0.0</v>
       </c>
       <c r="AX24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD24">
         <v>1.0</v>
@@ -9120,31 +9120,31 @@
         <v>1.0</v>
       </c>
       <c r="J25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25">
         <v>1.0</v>
       </c>
       <c r="M25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S25">
         <v>0.0</v>
@@ -9153,10 +9153,10 @@
         <v>0.0</v>
       </c>
       <c r="U25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W25">
         <v>0.0</v>
@@ -9165,97 +9165,97 @@
         <v>0.0</v>
       </c>
       <c r="Y25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD25">
         <v>1.0</v>
@@ -9812,10 +9812,10 @@
         <v>491.0</v>
       </c>
       <c r="D2">
-        <v>491.99999999999955</v>
+        <v>491.99999999999983</v>
       </c>
       <c r="E2">
-        <v>320.0</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F2">
         <v>103.99999999999997</v>
@@ -9836,10 +9836,10 @@
         <v>0.0</v>
       </c>
       <c r="L2">
-        <v>147.9999999999998</v>
+        <v>147.99999999999983</v>
       </c>
       <c r="M2">
-        <v>549.6025858819661</v>
+        <v>549.602585881966</v>
       </c>
       <c r="N2">
         <v>100.0</v>
@@ -9848,10 +9848,10 @@
         <v>0.0</v>
       </c>
       <c r="P2">
-        <v>254.9999999999999</v>
+        <v>255.0</v>
       </c>
       <c r="Q2">
-        <v>170.78616724095093</v>
+        <v>170.78616724094877</v>
       </c>
       <c r="R2">
         <v>0.0</v>
@@ -9866,16 +9866,16 @@
         <v>100.0</v>
       </c>
       <c r="V2">
-        <v>100.0</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="W2">
         <v>0.0</v>
       </c>
       <c r="X2">
-        <v>98.80978469040105</v>
+        <v>98.80978469039624</v>
       </c>
       <c r="Y2">
-        <v>65.46398508229711</v>
+        <v>65.46398508229822</v>
       </c>
       <c r="Z2">
         <v>0.0</v>
@@ -10159,19 +10159,19 @@
         <v>100.0</v>
       </c>
       <c r="C3">
-        <v>491.0</v>
+        <v>490.99999999999994</v>
       </c>
       <c r="D3">
-        <v>492.0</v>
+        <v>491.9999999999995</v>
       </c>
       <c r="E3">
         <v>320.0</v>
       </c>
       <c r="F3">
-        <v>104.0</v>
+        <v>103.99999999999997</v>
       </c>
       <c r="G3">
-        <v>542.182169048083</v>
+        <v>542.1821690480824</v>
       </c>
       <c r="H3">
         <v>119.0</v>
@@ -10183,16 +10183,16 @@
         <v>304.0</v>
       </c>
       <c r="K3">
-        <v>61.66666666666677</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="L3">
-        <v>147.99999999999798</v>
+        <v>147.99999999999872</v>
       </c>
       <c r="M3">
-        <v>454.12276961894156</v>
+        <v>454.1227696189417</v>
       </c>
       <c r="N3">
-        <v>100.0</v>
+        <v>99.99999999999986</v>
       </c>
       <c r="O3">
         <v>0.0</v>
@@ -10201,13 +10201,13 @@
         <v>254.9999999999996</v>
       </c>
       <c r="Q3">
-        <v>259.999999999999</v>
+        <v>259.99999999999943</v>
       </c>
       <c r="R3">
         <v>0.0</v>
       </c>
       <c r="S3">
-        <v>100.0</v>
+        <v>99.99999999999956</v>
       </c>
       <c r="T3">
         <v>0.0</v>
@@ -10216,16 +10216,16 @@
         <v>100.0</v>
       </c>
       <c r="V3">
-        <v>99.99999999999957</v>
+        <v>100.0</v>
       </c>
       <c r="W3">
         <v>0.0</v>
       </c>
       <c r="X3">
-        <v>135.99999999999997</v>
+        <v>136.0</v>
       </c>
       <c r="Y3">
-        <v>99.13065174896377</v>
+        <v>99.1306517489649</v>
       </c>
       <c r="Z3">
         <v>0.0</v>
@@ -10435,7 +10435,7 @@
         <v>27.884064450935764</v>
       </c>
       <c r="CQ3">
-        <v>30.0244679591456</v>
+        <v>30.024467959145582</v>
       </c>
       <c r="CR3">
         <v>30.7873434354135</v>
@@ -10509,16 +10509,16 @@
         <v>100.0</v>
       </c>
       <c r="C4">
-        <v>490.9999999999992</v>
+        <v>491.0</v>
       </c>
       <c r="D4">
-        <v>491.99999999999955</v>
+        <v>492.0</v>
       </c>
       <c r="E4">
         <v>320.0</v>
       </c>
       <c r="F4">
-        <v>103.99999999999997</v>
+        <v>104.0</v>
       </c>
       <c r="G4">
         <v>706.9999999999995</v>
@@ -10530,10 +10530,10 @@
         <v>5455.617142857142</v>
       </c>
       <c r="J4">
-        <v>304.0</v>
+        <v>303.99999999999494</v>
       </c>
       <c r="K4">
-        <v>99.99999999999977</v>
+        <v>100.0</v>
       </c>
       <c r="L4">
         <v>148.0</v>
@@ -10548,16 +10548,16 @@
         <v>0.0</v>
       </c>
       <c r="P4">
-        <v>254.99999999999795</v>
+        <v>254.99999999999727</v>
       </c>
       <c r="Q4">
-        <v>163.31480967676816</v>
+        <v>163.31480967678908</v>
       </c>
       <c r="R4">
         <v>0.0</v>
       </c>
       <c r="S4">
-        <v>90.75094062530681</v>
+        <v>90.75094062529863</v>
       </c>
       <c r="T4">
         <v>0.0</v>
@@ -10572,10 +10572,10 @@
         <v>0.0</v>
       </c>
       <c r="X4">
-        <v>89.1253333333333</v>
+        <v>89.12533333333333</v>
       </c>
       <c r="Y4">
-        <v>65.46398508229711</v>
+        <v>65.46398508229822</v>
       </c>
       <c r="Z4">
         <v>0.0</v>
@@ -10856,22 +10856,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>99.99999999999889</v>
+        <v>100.0</v>
       </c>
       <c r="C5">
-        <v>490.99999999999955</v>
+        <v>491.0</v>
       </c>
       <c r="D5">
-        <v>492.0</v>
+        <v>491.9999999999985</v>
       </c>
       <c r="E5">
         <v>320.0</v>
       </c>
       <c r="F5">
-        <v>104.00000000000013</v>
+        <v>103.99999999999993</v>
       </c>
       <c r="G5">
-        <v>706.9999999999997</v>
+        <v>706.9999999999994</v>
       </c>
       <c r="H5">
         <v>119.0</v>
@@ -10880,40 +10880,40 @@
         <v>5418.622857142855</v>
       </c>
       <c r="J5">
-        <v>304.0</v>
+        <v>303.9999999999952</v>
       </c>
       <c r="K5">
-        <v>100.0</v>
+        <v>99.99999999999991</v>
       </c>
       <c r="L5">
-        <v>147.99999999999713</v>
+        <v>147.99999999999912</v>
       </c>
       <c r="M5">
         <v>549.9999999999999</v>
       </c>
       <c r="N5">
-        <v>99.99999999999966</v>
+        <v>99.99999999999989</v>
       </c>
       <c r="O5">
         <v>0.0</v>
       </c>
       <c r="P5">
-        <v>254.9999999999994</v>
+        <v>255.0</v>
       </c>
       <c r="Q5">
-        <v>259.9999999999985</v>
+        <v>259.99999999999943</v>
       </c>
       <c r="R5">
         <v>0.0</v>
       </c>
       <c r="S5">
-        <v>90.7788068903613</v>
+        <v>90.77880689036444</v>
       </c>
       <c r="T5">
         <v>0.0</v>
       </c>
       <c r="U5">
-        <v>46.89292898446156</v>
+        <v>46.89292898442535</v>
       </c>
       <c r="V5">
         <v>20.666666666666657</v>
@@ -10925,7 +10925,7 @@
         <v>42.25066666666666</v>
       </c>
       <c r="Y5">
-        <v>31.79731841563045</v>
+        <v>31.79731841563156</v>
       </c>
       <c r="Z5">
         <v>0.0</v>
@@ -11206,16 +11206,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99.99999999999889</v>
+        <v>99.99999999999878</v>
       </c>
       <c r="C6">
         <v>491.0</v>
       </c>
       <c r="D6">
-        <v>491.9999999999997</v>
+        <v>491.99999999999835</v>
       </c>
       <c r="E6">
-        <v>319.99999999999983</v>
+        <v>319.9999999999997</v>
       </c>
       <c r="F6">
         <v>104.0</v>
@@ -11230,43 +11230,43 @@
         <v>5374.719999999997</v>
       </c>
       <c r="J6">
-        <v>303.99999999999744</v>
+        <v>304.0</v>
       </c>
       <c r="K6">
-        <v>99.99999999999989</v>
+        <v>99.99999999999943</v>
       </c>
       <c r="L6">
-        <v>147.99999999999676</v>
+        <v>147.99999999999915</v>
       </c>
       <c r="M6">
         <v>550.0</v>
       </c>
       <c r="N6">
-        <v>100.0</v>
+        <v>99.99999999999983</v>
       </c>
       <c r="O6">
         <v>0.0</v>
       </c>
       <c r="P6">
-        <v>254.9999999999994</v>
+        <v>254.99999999999872</v>
       </c>
       <c r="Q6">
-        <v>212.16653333135582</v>
+        <v>212.16653333134673</v>
       </c>
       <c r="R6">
         <v>0.0</v>
       </c>
       <c r="S6">
-        <v>45.11214022369463</v>
+        <v>45.112140223698695</v>
       </c>
       <c r="T6">
         <v>0.0</v>
       </c>
       <c r="U6">
-        <v>88.0114972163544</v>
+        <v>88.01149721636423</v>
       </c>
       <c r="V6">
-        <v>20.666666666666657</v>
+        <v>20.66666666666666</v>
       </c>
       <c r="W6">
         <v>0.0</v>
@@ -11275,7 +11275,7 @@
         <v>42.25066666666666</v>
       </c>
       <c r="Y6">
-        <v>27.354163771359595</v>
+        <v>27.354163771358458</v>
       </c>
       <c r="Z6">
         <v>0.0</v>
@@ -11562,13 +11562,13 @@
         <v>491.0</v>
       </c>
       <c r="D7">
-        <v>491.99999999999966</v>
+        <v>491.9999999999993</v>
       </c>
       <c r="E7">
-        <v>319.9999999999996</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F7">
-        <v>104.00000000000014</v>
+        <v>104.0</v>
       </c>
       <c r="G7">
         <v>707.0</v>
@@ -11580,25 +11580,25 @@
         <v>5330.965714285712</v>
       </c>
       <c r="J7">
-        <v>303.9999999999986</v>
+        <v>304.0</v>
       </c>
       <c r="K7">
-        <v>100.0</v>
+        <v>99.99999999999991</v>
       </c>
       <c r="L7">
-        <v>85.93866666666551</v>
+        <v>85.93866666666366</v>
       </c>
       <c r="M7">
-        <v>549.9999999999999</v>
+        <v>550.0</v>
       </c>
       <c r="N7">
-        <v>55.66666666666677</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="O7">
         <v>0.0</v>
       </c>
       <c r="P7">
-        <v>169.575</v>
+        <v>169.5749999999996</v>
       </c>
       <c r="Q7">
         <v>115.26666666666588</v>
@@ -11613,10 +11613,10 @@
         <v>0.0</v>
       </c>
       <c r="U7">
-        <v>89.6076544131816</v>
+        <v>89.60765441315834</v>
       </c>
       <c r="V7">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="W7">
         <v>0.0</v>
@@ -11625,7 +11625,7 @@
         <v>89.12533333333333</v>
       </c>
       <c r="Y7">
-        <v>61.02083043802626</v>
+        <v>61.02083043802512</v>
       </c>
       <c r="Z7">
         <v>0.0</v>
@@ -11915,13 +11915,13 @@
         <v>492.0</v>
       </c>
       <c r="E8">
-        <v>320.0</v>
+        <v>319.99999999999983</v>
       </c>
       <c r="F8">
         <v>104.0</v>
       </c>
       <c r="G8">
-        <v>623.6851896969489</v>
+        <v>623.6851896969491</v>
       </c>
       <c r="H8">
         <v>119.0</v>
@@ -11930,16 +11930,16 @@
         <v>5287.36</v>
       </c>
       <c r="J8">
-        <v>303.99999999999994</v>
+        <v>304.0</v>
       </c>
       <c r="K8">
-        <v>99.99999999999986</v>
+        <v>100.0</v>
       </c>
       <c r="L8">
         <v>0.0</v>
       </c>
       <c r="M8">
-        <v>359.2347004163665</v>
+        <v>359.234700416363</v>
       </c>
       <c r="N8">
         <v>0.0</v>
@@ -11963,19 +11963,19 @@
         <v>0.0</v>
       </c>
       <c r="U8">
-        <v>99.9999999999998</v>
+        <v>100.0</v>
       </c>
       <c r="V8">
-        <v>100.0</v>
+        <v>99.99999999999874</v>
       </c>
       <c r="W8">
         <v>0.0</v>
       </c>
       <c r="X8">
-        <v>135.99999999999997</v>
+        <v>136.0</v>
       </c>
       <c r="Y8">
-        <v>94.68749710469291</v>
+        <v>94.68749710469159</v>
       </c>
       <c r="Z8">
         <v>0.0</v>
@@ -12256,19 +12256,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100.0</v>
+        <v>99.99999999999969</v>
       </c>
       <c r="C9">
-        <v>490.9999999999983</v>
+        <v>490.9999999999992</v>
       </c>
       <c r="D9">
         <v>492.0</v>
       </c>
       <c r="E9">
-        <v>319.99999999999994</v>
+        <v>320.0</v>
       </c>
       <c r="F9">
-        <v>103.99999999999999</v>
+        <v>103.99999999999994</v>
       </c>
       <c r="G9">
         <v>707.0</v>
@@ -12280,16 +12280,16 @@
         <v>5250.068571428569</v>
       </c>
       <c r="J9">
-        <v>303.99999999999983</v>
+        <v>304.0</v>
       </c>
       <c r="K9">
-        <v>99.99999999999997</v>
+        <v>99.99999999999983</v>
       </c>
       <c r="L9">
         <v>0.0</v>
       </c>
       <c r="M9">
-        <v>215.34554580958968</v>
+        <v>215.3455458095886</v>
       </c>
       <c r="N9">
         <v>0.0</v>
@@ -12316,16 +12316,16 @@
         <v>99.99999999999974</v>
       </c>
       <c r="V9">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="W9">
         <v>0.0</v>
       </c>
       <c r="X9">
-        <v>93.74933333333348</v>
+        <v>93.74933333333347</v>
       </c>
       <c r="Y9">
-        <v>95.874850511773</v>
+        <v>95.87485051177318</v>
       </c>
       <c r="Z9">
         <v>0.0</v>
@@ -12511,7 +12511,7 @@
         <v>26.788821177575205</v>
       </c>
       <c r="CI9">
-        <v>17.411128243154483</v>
+        <v>17.41112824315466</v>
       </c>
       <c r="CJ9">
         <v>29.427520665328043</v>
@@ -12612,10 +12612,10 @@
         <v>491.0</v>
       </c>
       <c r="D10">
-        <v>491.9999999999998</v>
+        <v>491.9999999999996</v>
       </c>
       <c r="E10">
-        <v>319.99999999999994</v>
+        <v>320.0</v>
       </c>
       <c r="F10">
         <v>104.0</v>
@@ -12630,7 +12630,7 @@
         <v>5219.759999999996</v>
       </c>
       <c r="J10">
-        <v>303.99999999999994</v>
+        <v>304.0</v>
       </c>
       <c r="K10">
         <v>99.99999999999986</v>
@@ -12639,7 +12639,7 @@
         <v>0.0</v>
       </c>
       <c r="M10">
-        <v>359.14958874473024</v>
+        <v>359.14958874472944</v>
       </c>
       <c r="N10">
         <v>0.0</v>
@@ -12666,16 +12666,16 @@
         <v>58.33333333333308</v>
       </c>
       <c r="V10">
-        <v>20.666666666666657</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="W10">
         <v>0.0</v>
       </c>
       <c r="X10">
-        <v>46.87466666666681</v>
+        <v>46.8746666666668</v>
       </c>
       <c r="Y10">
-        <v>62.208183845106326</v>
+        <v>62.20818384510651</v>
       </c>
       <c r="Z10">
         <v>0.0</v>
@@ -12956,13 +12956,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100.0</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="C11">
-        <v>491.0</v>
+        <v>490.99999999999994</v>
       </c>
       <c r="D11">
-        <v>491.99999999999994</v>
+        <v>491.9999999999999</v>
       </c>
       <c r="E11">
         <v>320.0</v>
@@ -12983,13 +12983,13 @@
         <v>304.0</v>
       </c>
       <c r="K11">
-        <v>100.0</v>
+        <v>99.9999999999998</v>
       </c>
       <c r="L11">
         <v>0.0</v>
       </c>
       <c r="M11">
-        <v>399.3616374648853</v>
+        <v>399.36163746488535</v>
       </c>
       <c r="N11">
         <v>0.0</v>
@@ -13013,7 +13013,7 @@
         <v>0.0</v>
       </c>
       <c r="U11">
-        <v>22.31500420342267</v>
+        <v>22.31500420340689</v>
       </c>
       <c r="V11">
         <v>0.0</v>
@@ -13025,7 +13025,7 @@
         <v>0.0</v>
       </c>
       <c r="Y11">
-        <v>28.541517178439666</v>
+        <v>28.54151717843986</v>
       </c>
       <c r="Z11">
         <v>0.0</v>
@@ -13312,16 +13312,16 @@
         <v>491.0</v>
       </c>
       <c r="D12">
-        <v>491.9999999999997</v>
+        <v>491.9999999999998</v>
       </c>
       <c r="E12">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F12">
-        <v>103.99999999999997</v>
+        <v>104.0</v>
       </c>
       <c r="G12">
-        <v>706.9999999999998</v>
+        <v>707.0</v>
       </c>
       <c r="H12">
         <v>119.0</v>
@@ -13333,13 +13333,13 @@
         <v>304.0</v>
       </c>
       <c r="K12">
-        <v>99.99999999999993</v>
+        <v>100.0</v>
       </c>
       <c r="L12">
         <v>0.0</v>
       </c>
       <c r="M12">
-        <v>323.87389188233254</v>
+        <v>323.87389188234</v>
       </c>
       <c r="N12">
         <v>0.0</v>
@@ -13483,7 +13483,7 @@
         <v>33.408332860116175</v>
       </c>
       <c r="BI12">
-        <v>34.915688892289495</v>
+        <v>34.91568889228949</v>
       </c>
       <c r="BJ12">
         <v>30.65342129933403</v>
@@ -13591,7 +13591,7 @@
         <v>34.97410412141318</v>
       </c>
       <c r="CS12">
-        <v>35.332729363204265</v>
+        <v>35.33272936320427</v>
       </c>
       <c r="CT12">
         <v>36.341212143379074</v>
@@ -13662,13 +13662,13 @@
         <v>491.0</v>
       </c>
       <c r="D13">
-        <v>491.99999999999983</v>
+        <v>491.9999999999997</v>
       </c>
       <c r="E13">
-        <v>319.99999999999994</v>
+        <v>320.0</v>
       </c>
       <c r="F13">
-        <v>103.99999999999994</v>
+        <v>104.0</v>
       </c>
       <c r="G13">
         <v>707.0</v>
@@ -13680,16 +13680,16 @@
         <v>5041.102857142857</v>
       </c>
       <c r="J13">
-        <v>265.2290114565126</v>
+        <v>265.22901145650656</v>
       </c>
       <c r="K13">
-        <v>99.99999999999974</v>
+        <v>99.99999999999991</v>
       </c>
       <c r="L13">
         <v>0.0</v>
       </c>
       <c r="M13">
-        <v>258.02457499424</v>
+        <v>258.0245749942402</v>
       </c>
       <c r="N13">
         <v>0.0</v>
@@ -14009,19 +14009,19 @@
         <v>99.99999999999969</v>
       </c>
       <c r="C14">
-        <v>490.99999999999795</v>
+        <v>490.9999999999993</v>
       </c>
       <c r="D14">
         <v>492.0</v>
       </c>
       <c r="E14">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F14">
         <v>104.0</v>
       </c>
       <c r="G14">
-        <v>614.1735877596309</v>
+        <v>614.1735877596541</v>
       </c>
       <c r="H14">
         <v>41.61033333333333</v>
@@ -14030,16 +14030,16 @@
         <v>4966.965714285715</v>
       </c>
       <c r="J14">
-        <v>91.94901145651335</v>
+        <v>91.94901145650658</v>
       </c>
       <c r="K14">
-        <v>61.666666666666615</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="L14">
         <v>0.0</v>
       </c>
       <c r="M14">
-        <v>538.5245749942401</v>
+        <v>538.5245749942402</v>
       </c>
       <c r="N14">
         <v>0.0</v>
@@ -14356,31 +14356,31 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99.99999999999976</v>
+        <v>99.9999999999997</v>
       </c>
       <c r="C15">
-        <v>490.99999999999994</v>
+        <v>491.0</v>
       </c>
       <c r="D15">
-        <v>491.9999999999987</v>
+        <v>491.99999999999915</v>
       </c>
       <c r="E15">
-        <v>319.9999999999999</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F15">
-        <v>103.99999999999997</v>
+        <v>103.99999999999999</v>
       </c>
       <c r="G15">
         <v>707.0</v>
       </c>
       <c r="H15">
-        <v>88.747938628426</v>
+        <v>88.74793862843265</v>
       </c>
       <c r="I15">
         <v>4851.971428571427</v>
       </c>
       <c r="J15">
-        <v>60.800000000000004</v>
+        <v>60.8</v>
       </c>
       <c r="K15">
         <v>0.0</v>
@@ -14389,7 +14389,7 @@
         <v>0.0</v>
       </c>
       <c r="M15">
-        <v>376.3819498676559</v>
+        <v>376.3819498676557</v>
       </c>
       <c r="N15">
         <v>0.0</v>
@@ -14709,16 +14709,16 @@
         <v>100.0</v>
       </c>
       <c r="C16">
-        <v>490.99999999999727</v>
+        <v>491.0</v>
       </c>
       <c r="D16">
-        <v>492.0</v>
+        <v>491.99999999999966</v>
       </c>
       <c r="E16">
-        <v>319.99999999999926</v>
+        <v>320.0</v>
       </c>
       <c r="F16">
-        <v>104.00000000000009</v>
+        <v>104.0</v>
       </c>
       <c r="G16">
         <v>707.0</v>
@@ -14730,7 +14730,7 @@
         <v>4782.737142857143</v>
       </c>
       <c r="J16">
-        <v>202.52918134194422</v>
+        <v>202.52918134192737</v>
       </c>
       <c r="K16">
         <v>0.0</v>
@@ -14763,7 +14763,7 @@
         <v>0.0</v>
       </c>
       <c r="U16">
-        <v>25.166421439883415</v>
+        <v>25.166421439883102</v>
       </c>
       <c r="V16">
         <v>0.0</v>
@@ -15056,19 +15056,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>99.9999999999998</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="C17">
         <v>152.21000000000004</v>
       </c>
       <c r="D17">
-        <v>450.9464468560233</v>
+        <v>450.94644685602526</v>
       </c>
       <c r="E17">
-        <v>319.99999999999994</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F17">
-        <v>104.00000000000009</v>
+        <v>104.0</v>
       </c>
       <c r="G17">
         <v>707.0</v>
@@ -15080,7 +15080,7 @@
         <v>4695.822857142855</v>
       </c>
       <c r="J17">
-        <v>250.62511543828035</v>
+        <v>250.625115438277</v>
       </c>
       <c r="K17">
         <v>0.0</v>
@@ -15110,10 +15110,10 @@
         <v>0.0</v>
       </c>
       <c r="T17">
-        <v>43.66666666666665</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="U17">
-        <v>66.83308810654931</v>
+        <v>66.83308810654957</v>
       </c>
       <c r="V17">
         <v>0.0</v>
@@ -15406,10 +15406,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>99.99999999999964</v>
+        <v>99.99999999999946</v>
       </c>
       <c r="C18">
-        <v>350.63948178224496</v>
+        <v>350.639481782207</v>
       </c>
       <c r="D18">
         <v>492.0</v>
@@ -15418,10 +15418,10 @@
         <v>320.0</v>
       </c>
       <c r="F18">
-        <v>104.00000000000007</v>
+        <v>104.0</v>
       </c>
       <c r="G18">
-        <v>488.2892798281565</v>
+        <v>488.28927982815776</v>
       </c>
       <c r="H18">
         <v>41.61033333333333</v>
@@ -15430,7 +15430,7 @@
         <v>4634.611428571429</v>
       </c>
       <c r="J18">
-        <v>77.34511543828043</v>
+        <v>77.3451154382775</v>
       </c>
       <c r="K18">
         <v>0.0</v>
@@ -15463,7 +15463,7 @@
         <v>0.0</v>
       </c>
       <c r="U18">
-        <v>25.166421439882644</v>
+        <v>25.1664214398829</v>
       </c>
       <c r="V18">
         <v>0.0</v>
@@ -15484,7 +15484,7 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>27.25883145008133</v>
+        <v>27.258831450076165</v>
       </c>
       <c r="AC18">
         <v>0.0</v>
@@ -15756,19 +15756,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100.0</v>
+        <v>99.99999999999977</v>
       </c>
       <c r="C19">
         <v>491.0</v>
       </c>
       <c r="D19">
-        <v>491.9999999999999</v>
+        <v>491.99999999999943</v>
       </c>
       <c r="E19">
         <v>320.0</v>
       </c>
       <c r="F19">
-        <v>104.00000000000009</v>
+        <v>104.0</v>
       </c>
       <c r="G19">
         <v>707.0</v>
@@ -15780,7 +15780,7 @@
         <v>4561.328571428572</v>
       </c>
       <c r="J19">
-        <v>250.62511543828032</v>
+        <v>250.62511543827748</v>
       </c>
       <c r="K19">
         <v>0.0</v>
@@ -15813,7 +15813,7 @@
         <v>0.0</v>
       </c>
       <c r="U19">
-        <v>37.189014475396924</v>
+        <v>37.18901447539684</v>
       </c>
       <c r="V19">
         <v>0.0</v>
@@ -16106,7 +16106,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>99.99999999999974</v>
+        <v>99.99999999999977</v>
       </c>
       <c r="C20">
         <v>491.0</v>
@@ -16124,13 +16124,13 @@
         <v>707.0</v>
       </c>
       <c r="H20">
-        <v>119.0</v>
+        <v>118.99999999999996</v>
       </c>
       <c r="I20">
         <v>4510.405714285716</v>
       </c>
       <c r="J20">
-        <v>303.9999999999998</v>
+        <v>303.9999999999999</v>
       </c>
       <c r="K20">
         <v>0.0</v>
@@ -16163,7 +16163,7 @@
         <v>0.0</v>
       </c>
       <c r="U20">
-        <v>78.85568114206359</v>
+        <v>78.85568114206052</v>
       </c>
       <c r="V20">
         <v>0.0</v>
@@ -16456,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>99.99999999999919</v>
+        <v>100.0</v>
       </c>
       <c r="C21">
         <v>491.0</v>
@@ -16468,10 +16468,10 @@
         <v>320.0</v>
       </c>
       <c r="F21">
-        <v>103.99999999999997</v>
+        <v>104.0</v>
       </c>
       <c r="G21">
-        <v>706.9999999999995</v>
+        <v>707.0</v>
       </c>
       <c r="H21">
         <v>119.0</v>
@@ -16480,7 +16480,7 @@
         <v>4478.09142857143</v>
       </c>
       <c r="J21">
-        <v>304.0</v>
+        <v>303.9999999999998</v>
       </c>
       <c r="K21">
         <v>0.0</v>
@@ -16489,7 +16489,7 @@
         <v>0.0</v>
       </c>
       <c r="M21">
-        <v>476.1039726031925</v>
+        <v>476.1039726031882</v>
       </c>
       <c r="N21">
         <v>0.0</v>
@@ -16513,7 +16513,7 @@
         <v>0.0</v>
       </c>
       <c r="U21">
-        <v>37.189014475396924</v>
+        <v>37.189014475394</v>
       </c>
       <c r="V21">
         <v>0.0</v>
@@ -16654,10 +16654,10 @@
         <v>33.08512267761644</v>
       </c>
       <c r="BP21">
-        <v>31.965544036514522</v>
+        <v>31.965544036514643</v>
       </c>
       <c r="BQ21">
-        <v>23.039249380946785</v>
+        <v>23.039249380947354</v>
       </c>
       <c r="BR21">
         <v>34.35427084485997</v>
@@ -16806,22 +16806,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>99.99999999999982</v>
+        <v>100.0</v>
       </c>
       <c r="C22">
         <v>491.0</v>
       </c>
       <c r="D22">
-        <v>492.0</v>
+        <v>491.99999999999915</v>
       </c>
       <c r="E22">
-        <v>320.0</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F22">
-        <v>104.00000000000006</v>
+        <v>104.0</v>
       </c>
       <c r="G22">
-        <v>706.9999999999997</v>
+        <v>707.0</v>
       </c>
       <c r="H22">
         <v>119.0</v>
@@ -16830,7 +16830,7 @@
         <v>4421.485714285716</v>
       </c>
       <c r="J22">
-        <v>303.9999999999991</v>
+        <v>304.0</v>
       </c>
       <c r="K22">
         <v>0.0</v>
@@ -16839,7 +16839,7 @@
         <v>0.0</v>
       </c>
       <c r="M22">
-        <v>401.6516527516861</v>
+        <v>401.65165275168596</v>
       </c>
       <c r="N22">
         <v>0.0</v>
@@ -17159,16 +17159,16 @@
         <v>100.0</v>
       </c>
       <c r="C23">
-        <v>490.9999999999991</v>
+        <v>491.0</v>
       </c>
       <c r="D23">
-        <v>491.99999999999915</v>
+        <v>492.0</v>
       </c>
       <c r="E23">
-        <v>319.999999999999</v>
+        <v>319.9999999999995</v>
       </c>
       <c r="F23">
-        <v>103.99999999999996</v>
+        <v>104.0</v>
       </c>
       <c r="G23">
         <v>707.0</v>
@@ -17180,7 +17180,7 @@
         <v>4356.745714285717</v>
       </c>
       <c r="J23">
-        <v>285.3608088508206</v>
+        <v>285.36080885081594</v>
       </c>
       <c r="K23">
         <v>0.0</v>
@@ -17506,16 +17506,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>99.9999999999994</v>
+        <v>100.0</v>
       </c>
       <c r="C24">
         <v>491.0</v>
       </c>
       <c r="D24">
-        <v>491.9999999999999</v>
+        <v>491.9999999999998</v>
       </c>
       <c r="E24">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F24">
         <v>104.0</v>
@@ -17524,7 +17524,7 @@
         <v>707.0</v>
       </c>
       <c r="H24">
-        <v>119.0</v>
+        <v>118.99999999999994</v>
       </c>
       <c r="I24">
         <v>4292.451428571432</v>
@@ -17539,7 +17539,7 @@
         <v>0.0</v>
       </c>
       <c r="M24">
-        <v>353.16678959637727</v>
+        <v>353.1667895963708</v>
       </c>
       <c r="N24">
         <v>0.0</v>
@@ -17563,7 +17563,7 @@
         <v>0.0</v>
       </c>
       <c r="U24">
-        <v>41.66666666666665</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="V24">
         <v>0.0</v>
@@ -17782,7 +17782,7 @@
         <v>31.222358591020246</v>
       </c>
       <c r="CP24">
-        <v>10.35015285897697</v>
+        <v>10.350152858977083</v>
       </c>
       <c r="CQ24">
         <v>33.46530601135672</v>
@@ -17856,7 +17856,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>99.99999999999852</v>
+        <v>99.99999999999949</v>
       </c>
       <c r="C25">
         <v>491.0</v>
@@ -17865,7 +17865,7 @@
         <v>492.0</v>
       </c>
       <c r="E25">
-        <v>319.9999999999999</v>
+        <v>320.0</v>
       </c>
       <c r="F25">
         <v>104.0</v>
@@ -17889,7 +17889,7 @@
         <v>0.0</v>
       </c>
       <c r="M25">
-        <v>328.2955486627667</v>
+        <v>328.29554866276203</v>
       </c>
       <c r="N25">
         <v>0.0</v>
@@ -18227,7 +18227,7 @@
         <v>118</v>
       </c>
       <c r="B2">
-        <v>2.1933216991783595e6</v>
+        <v>2.1933216991783553e6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18251,7 +18251,7 @@
         <v>121</v>
       </c>
       <c r="B5">
-        <v>1.5091416991783602e6</v>
+        <v>1.509141699178356e6</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_p1.xlsx
+++ b/resultados_p1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/587705b1804ca272/Escritorio/Operacion-Economica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{533CA825-98E3-4910-9C6D-72EA745CD56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Estado ON-OFF" r:id="rId4" sheetId="2"/>
-    <sheet name="Generación" r:id="rId5" sheetId="3"/>
-    <sheet name="Costos" r:id="rId7" sheetId="4"/>
+    <sheet name="Estado ON-OFF" sheetId="2" r:id="rId2"/>
+    <sheet name="Generación" sheetId="3" r:id="rId3"/>
+    <sheet name="Costos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Hora</t>
   </si>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,33 +416,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED53E36-C579-4C57-BCDF-0315421AF341}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBD91D-B9B6-42F3-AF01-C27F15CCB09A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,628 +468,628 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05ADD7-DE2F-4C7F-BBEA-9958F6299293}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,198 +1134,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>74.99999999999994</v>
+        <v>74.999999999999957</v>
       </c>
       <c r="D2">
-        <v>52.83297191515399</v>
+        <v>52.83297191515387</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>31.167028084846212</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>258.99999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.94141852203244</v>
+        <v>98.941418522032436</v>
       </c>
       <c r="C3">
-        <v>52.499999999999986</v>
+        <v>52.499999999999964</v>
       </c>
       <c r="D3">
-        <v>30.33297191515434</v>
+        <v>30.332971915154072</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>29.425609562813513</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>211.20000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>50.09473739849984</v>
+        <v>50.094737398500115</v>
       </c>
       <c r="D4">
-        <v>7.832971915154694</v>
+        <v>7.8329719151542889</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>27.672290686345676</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>185.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>30.26774739516525</v>
+        <v>30.267747395165021</v>
       </c>
       <c r="D5">
-        <v>7.4999999999998765</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>28.632252604835134</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>166.40000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98.1171047762681</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>25.631490982206827</v>
+        <v>23.748595758474863</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>28.751256148226485</v>
       </c>
       <c r="H6">
-        <v>0.00014809329877823026</v>
+        <v>1.4809329877823026E-4</v>
       </c>
       <c r="I6">
         <v>160.00000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>48.13149098220677</v>
+        <v>46.248595758474835</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>9.3828952237318148</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>29.223303538341348</v>
       </c>
       <c r="H7">
-        <v>7.145205479452054</v>
+        <v>7.1452054794520539</v>
       </c>
       <c r="I7">
         <v>192.00000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>55.748045697290195</v>
+        <v>55.748045697290095</v>
       </c>
       <c r="D8">
         <v>7.5</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>28.636219389714864</v>
@@ -1337,27 +1337,27 @@
         <v>224.00000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>74.99999999999991</v>
+        <v>74.999999999999943</v>
       </c>
       <c r="D9">
-        <v>8.769218190723715</v>
+        <v>8.7692181907235298</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>29.73898556097351</v>
+        <v>29.738985560973511</v>
       </c>
       <c r="H9">
         <v>36.091796248303055</v>
@@ -1366,24 +1366,24 @@
         <v>249.60000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>74.99999999999994</v>
+        <v>74.999999999999929</v>
       </c>
       <c r="D10">
-        <v>20.88693120714339</v>
+        <v>20.88693120714327</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>30.42127254455378</v>
@@ -1395,56 +1395,56 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>74.99999999999994</v>
+        <v>74.999999999999972</v>
       </c>
       <c r="D11">
-        <v>38.74219116370398</v>
+        <v>38.7421911637039</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>31.76601258799324</v>
+        <v>31.766012587993242</v>
       </c>
       <c r="H11">
         <v>36.091796248303055</v>
       </c>
       <c r="I11">
-        <v>281.6000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>281.60000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>74.99999999999997</v>
+        <v>74.999999999999943</v>
       </c>
       <c r="D12">
-        <v>40.577617196299315</v>
+        <v>40.577617196299229</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>33.13058655539784</v>
+        <v>33.130586555397841</v>
       </c>
       <c r="H12">
         <v>36.091796248303055</v>
@@ -1453,24 +1453,24 @@
         <v>284.80000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>74.99999999999996</v>
+        <v>74.999999999999943</v>
       </c>
       <c r="D13">
-        <v>23.400804375724494</v>
+        <v>23.400804375724373</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>34.3073993759728</v>
@@ -1482,24 +1482,24 @@
         <v>268.80000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>74.99999999999994</v>
+        <v>74.999999999999972</v>
       </c>
       <c r="D14">
-        <v>10.600804375724474</v>
+        <v>10.600804375724167</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>34.3073993759728</v>
@@ -1511,24 +1511,24 @@
         <v>256.00000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>59.09999999999983</v>
+        <v>59.1</v>
       </c>
       <c r="D15">
-        <v>13.700804375724449</v>
+        <v>13.700804375724054</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>34.3073993759728</v>
@@ -1540,24 +1540,24 @@
         <v>243.20000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>74.99999999999997</v>
+        <v>74.999999999999972</v>
       </c>
       <c r="D16">
-        <v>36.20080437572425</v>
+        <v>36.200804375724054</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>34.3073993759728</v>
@@ -1566,27 +1566,27 @@
         <v>36.091796248303055</v>
       </c>
       <c r="I16">
-        <v>281.6000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>281.60000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>74.99999999999996</v>
+        <v>74.999999999999929</v>
       </c>
       <c r="D17">
-        <v>42.60080437572429</v>
+        <v>42.600804375724181</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>34.3073993759728</v>
@@ -1595,27 +1595,27 @@
         <v>36.091796248303055</v>
       </c>
       <c r="I17">
-        <v>288.0000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>288.00000000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>63.34104344070085</v>
+        <v>63.341043440701036</v>
       </c>
       <c r="D18">
-        <v>38.25976093502358</v>
+        <v>38.259760935023294</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>34.3073993759728</v>
@@ -1627,24 +1627,24 @@
         <v>272.00000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>74.99999999999991</v>
+        <v>74.999999999999943</v>
       </c>
       <c r="D19">
-        <v>60.7597609350234</v>
+        <v>60.759760935023237</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>34.3073993759728</v>
@@ -1656,175 +1656,175 @@
         <v>284.80000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>74.99999999999991</v>
+        <v>74.999999999999915</v>
       </c>
       <c r="D20">
-        <v>74.99999999999997</v>
+        <v>74.999999999999972</v>
       </c>
       <c r="E20">
-        <v>15.870460675860121</v>
+        <v>15.870460675859809</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>34.3073993759728</v>
       </c>
       <c r="H20">
-        <v>0.6221399481673432</v>
+        <v>0.62213994816734319</v>
       </c>
       <c r="I20">
-        <v>300.8000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>300.80000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>74.99999999999994</v>
+        <v>74.999999999999929</v>
       </c>
       <c r="D21">
-        <v>75.0</v>
+        <v>74.999999999999986</v>
       </c>
       <c r="E21">
-        <v>29.292600624027642</v>
+        <v>29.292600624027216</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>34.3073993759728</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>313.6000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>313.60000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C22">
-        <v>74.99999999999997</v>
+        <v>74.999999999999915</v>
       </c>
       <c r="D22">
-        <v>75.0</v>
+        <v>74.999999999999986</v>
       </c>
       <c r="E22">
-        <v>35.692600624026774</v>
+        <v>35.6926006240273</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>34.3073993759728</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>320.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C23">
-        <v>74.99999999999996</v>
+        <v>74.999999999999929</v>
       </c>
       <c r="D23">
-        <v>65.49999999999945</v>
+        <v>65.499999999999915</v>
       </c>
       <c r="E23">
-        <v>13.192600624027444</v>
+        <v>13.192600624027554</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>34.3073993759728</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>288.0000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>288.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>74.99999999999993</v>
+        <v>74.999999999999957</v>
       </c>
       <c r="D24">
-        <v>70.89616544154812</v>
+        <v>70.896165441547879</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>32.50383455845216</v>
+        <v>32.503834558452162</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>278.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>74.99999999999999</v>
+        <v>74.999999999999943</v>
       </c>
       <c r="D25">
-        <v>56.193304067182915</v>
+        <v>56.193304067182822</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>31.206695932817297</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>262.40000000000003</v>
@@ -1836,14 +1836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1989DD0D-F0F1-4CE1-A0E1-048F55CC4475}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1851,36 +1851,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>218792.88691128805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>218792.8869112879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>37800.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>171242.8869112881</v>
+        <v>171242.88691128796</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_p1.xlsx
+++ b/resultados_p1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/587705b1804ca272/Escritorio/Operacion-Economica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="115_{533CA825-98E3-4910-9C6D-72EA745CD56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Estado ON-OFF" sheetId="2" r:id="rId2"/>
-    <sheet name="Generación" sheetId="3" r:id="rId3"/>
-    <sheet name="Costos" sheetId="4" r:id="rId4"/>
+    <sheet name="Estado ON-OFF" r:id="rId4" sheetId="2"/>
+    <sheet name="Generación" r:id="rId5" sheetId="3"/>
+    <sheet name="Costos" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Hora</t>
   </si>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,33 +416,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED53E36-C579-4C57-BCDF-0315421AF341}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBD91D-B9B6-42F3-AF01-C27F15CCB09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,628 +468,628 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1098,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05ADD7-DE2F-4C7F-BBEA-9958F6299293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,198 +1134,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C2">
-        <v>74.999999999999957</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D2">
-        <v>52.83297191515387</v>
+        <v>52.832971915153955</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
         <v>31.167028084846212</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
         <v>258.99999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.941418522032436</v>
+        <v>98.94141852203268</v>
       </c>
       <c r="C3">
-        <v>52.499999999999964</v>
+        <v>52.49999999999999</v>
       </c>
       <c r="D3">
-        <v>30.332971915154072</v>
+        <v>30.332971915154083</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
         <v>29.425609562813513</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
         <v>211.20000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C4">
-        <v>50.094737398500115</v>
+        <v>50.094737398500335</v>
       </c>
       <c r="D4">
-        <v>7.8329719151542889</v>
+        <v>7.832971915154221</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
         <v>27.672290686345676</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I4">
         <v>185.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C5">
-        <v>30.267747395165021</v>
+        <v>30.267747395165188</v>
       </c>
       <c r="D5">
-        <v>7.5</v>
+        <v>7.499999999999954</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
         <v>28.632252604835134</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I5">
         <v>166.40000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>98.1171047762681</v>
       </c>
       <c r="C6">
-        <v>23.748595758474863</v>
+        <v>25.631490982206827</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
         <v>28.751256148226485</v>
       </c>
       <c r="H6">
-        <v>1.4809329877823026E-4</v>
+        <v>0.00014809329877823026</v>
       </c>
       <c r="I6">
         <v>160.00000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C7">
-        <v>46.248595758474835</v>
+        <v>48.13149098220677</v>
       </c>
       <c r="D7">
-        <v>9.3828952237318148</v>
+        <v>7.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
         <v>29.223303538341348</v>
       </c>
       <c r="H7">
-        <v>7.1452054794520539</v>
+        <v>7.145205479452054</v>
       </c>
       <c r="I7">
         <v>192.00000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C8">
-        <v>55.748045697290095</v>
+        <v>55.748045697290195</v>
       </c>
       <c r="D8">
         <v>7.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
         <v>28.636219389714864</v>
@@ -1337,27 +1337,27 @@
         <v>224.00000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C9">
-        <v>74.999999999999943</v>
+        <v>74.99999999999996</v>
       </c>
       <c r="D9">
-        <v>8.7692181907235298</v>
+        <v>8.769218190723592</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>29.738985560973511</v>
+        <v>29.73898556097351</v>
       </c>
       <c r="H9">
         <v>36.091796248303055</v>
@@ -1366,24 +1366,24 @@
         <v>249.60000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C10">
-        <v>74.999999999999929</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D10">
-        <v>20.88693120714327</v>
+        <v>20.88693120714339</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
         <v>30.42127254455378</v>
@@ -1395,56 +1395,56 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C11">
-        <v>74.999999999999972</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D11">
-        <v>38.7421911637039</v>
+        <v>38.74219116370398</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>31.766012587993242</v>
+        <v>31.76601258799324</v>
       </c>
       <c r="H11">
         <v>36.091796248303055</v>
       </c>
       <c r="I11">
-        <v>281.60000000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281.6000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C12">
-        <v>74.999999999999943</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="D12">
-        <v>40.577617196299229</v>
+        <v>40.577617196299315</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
-        <v>33.130586555397841</v>
+        <v>33.13058655539784</v>
       </c>
       <c r="H12">
         <v>36.091796248303055</v>
@@ -1453,24 +1453,24 @@
         <v>284.80000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C13">
-        <v>74.999999999999943</v>
+        <v>74.99999999999994</v>
       </c>
       <c r="D13">
-        <v>23.400804375724373</v>
+        <v>23.400804375724434</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13">
         <v>34.3073993759728</v>
@@ -1482,24 +1482,24 @@
         <v>268.80000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C14">
-        <v>74.999999999999972</v>
+        <v>74.9999999999999</v>
       </c>
       <c r="D14">
-        <v>10.600804375724167</v>
+        <v>10.600804375724412</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14">
         <v>34.3073993759728</v>
@@ -1511,24 +1511,24 @@
         <v>256.00000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C15">
-        <v>59.1</v>
+        <v>59.099999999999696</v>
       </c>
       <c r="D15">
-        <v>13.700804375724054</v>
+        <v>13.700804375724644</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
         <v>34.3073993759728</v>
@@ -1540,24 +1540,24 @@
         <v>243.20000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C16">
-        <v>74.999999999999972</v>
+        <v>75.0</v>
       </c>
       <c r="D16">
-        <v>36.200804375724054</v>
+        <v>36.20080437572444</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
         <v>34.3073993759728</v>
@@ -1566,27 +1566,27 @@
         <v>36.091796248303055</v>
       </c>
       <c r="I16">
-        <v>281.60000000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281.6000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C17">
-        <v>74.999999999999929</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D17">
-        <v>42.600804375724181</v>
+        <v>42.60080437572435</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G17">
         <v>34.3073993759728</v>
@@ -1595,27 +1595,27 @@
         <v>36.091796248303055</v>
       </c>
       <c r="I17">
-        <v>288.00000000000011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>288.0000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C18">
-        <v>63.341043440701036</v>
+        <v>63.34104344070084</v>
       </c>
       <c r="D18">
-        <v>38.259760935023294</v>
+        <v>38.25976093502361</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
         <v>34.3073993759728</v>
@@ -1627,24 +1627,24 @@
         <v>272.00000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C19">
-        <v>74.999999999999943</v>
+        <v>74.99999999999991</v>
       </c>
       <c r="D19">
-        <v>60.759760935023237</v>
+        <v>60.7597609350234</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19">
         <v>34.3073993759728</v>
@@ -1656,175 +1656,175 @@
         <v>284.80000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C20">
-        <v>74.999999999999915</v>
+        <v>74.99999999999991</v>
       </c>
       <c r="D20">
-        <v>74.999999999999972</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="E20">
-        <v>15.870460675859809</v>
+        <v>15.870460675860121</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
         <v>34.3073993759728</v>
       </c>
       <c r="H20">
-        <v>0.62213994816734319</v>
+        <v>0.6221399481673432</v>
       </c>
       <c r="I20">
-        <v>300.80000000000013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>300.8000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C21">
-        <v>74.999999999999929</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D21">
-        <v>74.999999999999986</v>
+        <v>74.99999999999999</v>
       </c>
       <c r="E21">
-        <v>29.292600624027216</v>
+        <v>29.292600624027358</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
         <v>34.3073993759728</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I21">
-        <v>313.60000000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313.6000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C22">
-        <v>74.999999999999915</v>
+        <v>74.99999999999996</v>
       </c>
       <c r="D22">
-        <v>74.999999999999986</v>
+        <v>75.0</v>
       </c>
       <c r="E22">
-        <v>35.6926006240273</v>
+        <v>35.69260062402817</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G22">
         <v>34.3073993759728</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I22">
         <v>320.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C23">
-        <v>74.999999999999929</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D23">
-        <v>65.499999999999915</v>
+        <v>65.49999999999923</v>
       </c>
       <c r="E23">
-        <v>13.192600624027554</v>
+        <v>13.19260062402828</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23">
         <v>34.3073993759728</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I23">
-        <v>288.00000000000011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>288.0000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C24">
-        <v>74.999999999999957</v>
+        <v>74.99999999999993</v>
       </c>
       <c r="D24">
-        <v>70.896165441547879</v>
+        <v>70.89616544154812</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24">
-        <v>32.503834558452162</v>
+        <v>32.50383455845216</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I24">
         <v>278.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C25">
-        <v>74.999999999999943</v>
+        <v>74.99999999999999</v>
       </c>
       <c r="D25">
-        <v>56.193304067182822</v>
+        <v>56.193304067182915</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G25">
         <v>31.206695932817297</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I25">
         <v>262.40000000000003</v>
@@ -1836,14 +1836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1989DD0D-F0F1-4CE1-A0E1-048F55CC4475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1851,36 +1851,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>218792.8869112879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218792.8869112882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37800.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>171242.88691128796</v>
+        <v>171242.88691128822</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_p1.xlsx
+++ b/resultados_p1.xlsx
@@ -1151,130 +1151,130 @@
         <v>1.0</v>
       </c>
       <c r="N2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R2">
         <v>1.0</v>
       </c>
       <c r="S2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2">
         <v>1.0</v>
       </c>
       <c r="U2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2">
         <v>1.0</v>
       </c>
       <c r="X2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC2">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD2">
         <v>1.0</v>
@@ -1400,7 +1400,7 @@
         <v>0.0</v>
       </c>
       <c r="CS2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT2">
         <v>1.0</v>
@@ -1424,7 +1424,7 @@
         <v>1.0</v>
       </c>
       <c r="DA2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB2">
         <v>0.0</v>
@@ -1439,7 +1439,7 @@
         <v>1.0</v>
       </c>
       <c r="DF2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG2">
         <v>1.0</v>
@@ -1498,130 +1498,130 @@
         <v>1.0</v>
       </c>
       <c r="N3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R3">
         <v>1.0</v>
       </c>
       <c r="S3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3">
         <v>1.0</v>
       </c>
       <c r="U3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3">
         <v>1.0</v>
       </c>
       <c r="X3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC3">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD3">
         <v>1.0</v>
@@ -1747,7 +1747,7 @@
         <v>0.0</v>
       </c>
       <c r="CS3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT3">
         <v>1.0</v>
@@ -1771,7 +1771,7 @@
         <v>1.0</v>
       </c>
       <c r="DA3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB3">
         <v>0.0</v>
@@ -1786,7 +1786,7 @@
         <v>1.0</v>
       </c>
       <c r="DF3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG3">
         <v>1.0</v>
@@ -1845,130 +1845,130 @@
         <v>1.0</v>
       </c>
       <c r="N4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R4">
         <v>1.0</v>
       </c>
       <c r="S4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T4">
         <v>1.0</v>
       </c>
       <c r="U4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4">
         <v>1.0</v>
       </c>
       <c r="X4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC4">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD4">
         <v>1.0</v>
@@ -2094,7 +2094,7 @@
         <v>0.0</v>
       </c>
       <c r="CS4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT4">
         <v>1.0</v>
@@ -2118,7 +2118,7 @@
         <v>1.0</v>
       </c>
       <c r="DA4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB4">
         <v>0.0</v>
@@ -2133,7 +2133,7 @@
         <v>1.0</v>
       </c>
       <c r="DF4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG4">
         <v>1.0</v>
@@ -2192,130 +2192,130 @@
         <v>1.0</v>
       </c>
       <c r="N5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5">
         <v>1.0</v>
       </c>
       <c r="S5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5">
         <v>1.0</v>
       </c>
       <c r="U5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5">
         <v>1.0</v>
       </c>
       <c r="X5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB5">
         <v>0.0</v>
       </c>
       <c r="AC5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD5">
         <v>1.0</v>
@@ -2438,16 +2438,16 @@
         <v>1.0</v>
       </c>
       <c r="CR5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="CS5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT5">
         <v>1.0</v>
       </c>
       <c r="CU5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV5">
         <v>1.0</v>
@@ -2465,10 +2465,10 @@
         <v>1.0</v>
       </c>
       <c r="DA5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DB5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="DC5">
         <v>1.0</v>
@@ -2480,7 +2480,7 @@
         <v>1.0</v>
       </c>
       <c r="DF5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="DG5">
         <v>1.0</v>
@@ -2489,13 +2489,13 @@
         <v>1.0</v>
       </c>
       <c r="DI5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="DJ5">
         <v>1.0</v>
       </c>
       <c r="DK5">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:115">
@@ -2539,130 +2539,130 @@
         <v>1.0</v>
       </c>
       <c r="N6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
         <v>1.0</v>
       </c>
       <c r="S6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
         <v>1.0</v>
       </c>
       <c r="U6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6">
         <v>1.0</v>
       </c>
       <c r="X6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC6">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD6">
         <v>1.0</v>
@@ -2886,130 +2886,130 @@
         <v>1.0</v>
       </c>
       <c r="N7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7">
         <v>0.0</v>
       </c>
       <c r="Q7">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7">
         <v>1.0</v>
       </c>
       <c r="U7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7">
         <v>1.0</v>
       </c>
       <c r="X7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC7">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD7">
         <v>1.0</v>
@@ -3224,139 +3224,139 @@
         <v>1.0</v>
       </c>
       <c r="K8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
         <v>1.0</v>
       </c>
       <c r="M8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8">
         <v>1.0</v>
       </c>
       <c r="U8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W8">
         <v>1.0</v>
       </c>
       <c r="X8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8">
         <v>1.0</v>
@@ -3571,139 +3571,139 @@
         <v>1.0</v>
       </c>
       <c r="K9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9">
         <v>1.0</v>
       </c>
       <c r="M9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9">
         <v>1.0</v>
       </c>
       <c r="U9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9">
         <v>1.0</v>
       </c>
       <c r="X9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC9">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD9">
         <v>1.0</v>
@@ -3909,40 +3909,40 @@
         <v>1.0</v>
       </c>
       <c r="H10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
         <v>1.0</v>
       </c>
       <c r="M10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10">
         <v>1.0</v>
@@ -3951,106 +3951,106 @@
         <v>0.0</v>
       </c>
       <c r="V10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC10">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD10">
         <v>1.0</v>
@@ -4250,154 +4250,154 @@
         <v>1.0</v>
       </c>
       <c r="F11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
         <v>1.0</v>
       </c>
       <c r="H11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L11">
         <v>1.0</v>
       </c>
       <c r="M11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11">
         <v>1.0</v>
       </c>
       <c r="U11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC11">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11">
         <v>1.0</v>
@@ -4597,154 +4597,154 @@
         <v>1.0</v>
       </c>
       <c r="F12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
         <v>1.0</v>
       </c>
       <c r="H12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12">
         <v>1.0</v>
       </c>
       <c r="M12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC12">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12">
         <v>1.0</v>
@@ -4944,154 +4944,154 @@
         <v>1.0</v>
       </c>
       <c r="F13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13">
         <v>1.0</v>
       </c>
       <c r="H13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13">
         <v>1.0</v>
       </c>
       <c r="M13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13">
         <v>1.0</v>
@@ -5291,154 +5291,154 @@
         <v>1.0</v>
       </c>
       <c r="F14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14">
         <v>1.0</v>
       </c>
       <c r="H14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14">
         <v>1.0</v>
       </c>
       <c r="M14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC14">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD14">
         <v>1.0</v>
@@ -5638,154 +5638,154 @@
         <v>1.0</v>
       </c>
       <c r="F15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
         <v>1.0</v>
       </c>
       <c r="H15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15">
         <v>1.0</v>
       </c>
       <c r="M15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC15">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD15">
         <v>1.0</v>
@@ -5985,154 +5985,154 @@
         <v>1.0</v>
       </c>
       <c r="F16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
         <v>1.0</v>
       </c>
       <c r="H16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16">
         <v>1.0</v>
       </c>
       <c r="M16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC16">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD16">
         <v>1.0</v>
@@ -6332,154 +6332,154 @@
         <v>1.0</v>
       </c>
       <c r="F17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17">
         <v>1.0</v>
       </c>
       <c r="H17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17">
         <v>1.0</v>
       </c>
       <c r="M17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC17">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD17">
         <v>1.0</v>
@@ -6679,154 +6679,154 @@
         <v>1.0</v>
       </c>
       <c r="F18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
         <v>1.0</v>
       </c>
       <c r="H18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18">
         <v>1.0</v>
       </c>
       <c r="M18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC18">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18">
         <v>1.0</v>
@@ -7038,142 +7038,142 @@
         <v>1.0</v>
       </c>
       <c r="J19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L19">
         <v>1.0</v>
       </c>
       <c r="M19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC19">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD19">
         <v>1.0</v>
@@ -7385,142 +7385,142 @@
         <v>1.0</v>
       </c>
       <c r="J20">
-        <v>-0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20">
         <v>1.0</v>
       </c>
       <c r="M20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD20">
         <v>1.0</v>
@@ -7735,139 +7735,139 @@
         <v>1.0</v>
       </c>
       <c r="K21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21">
         <v>1.0</v>
       </c>
       <c r="M21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
       <c r="AC21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC21">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD21">
         <v>1.0</v>
@@ -8082,139 +8082,139 @@
         <v>1.0</v>
       </c>
       <c r="K22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22">
         <v>1.0</v>
       </c>
       <c r="M22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T22">
         <v>0.0</v>
       </c>
       <c r="U22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD22">
         <v>1.0</v>
@@ -8429,139 +8429,139 @@
         <v>1.0</v>
       </c>
       <c r="K23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23">
         <v>1.0</v>
       </c>
       <c r="M23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC23">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23">
         <v>1.0</v>
@@ -8776,139 +8776,139 @@
         <v>1.0</v>
       </c>
       <c r="K24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24">
         <v>1.0</v>
       </c>
       <c r="M24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T24">
         <v>0.0</v>
       </c>
       <c r="U24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC24">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD24">
         <v>1.0</v>
@@ -9123,139 +9123,139 @@
         <v>1.0</v>
       </c>
       <c r="K25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25">
         <v>1.0</v>
       </c>
       <c r="M25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="S25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25">
         <v>0.0</v>
       </c>
       <c r="U25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="V25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="W25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="X25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC25">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD25">
         <v>1.0</v>
@@ -9806,19 +9806,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>99.99999999999993</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="C2">
-        <v>490.99999999999994</v>
+        <v>490.9999999999999</v>
       </c>
       <c r="D2">
-        <v>491.9999999999998</v>
+        <v>491.9999999999997</v>
       </c>
       <c r="E2">
         <v>320.0</v>
       </c>
       <c r="F2">
-        <v>104.00000000000014</v>
+        <v>104.0</v>
       </c>
       <c r="G2">
         <v>707.0</v>
@@ -9830,55 +9830,55 @@
         <v>5514.599999999999</v>
       </c>
       <c r="J2">
-        <v>303.9999999999999</v>
+        <v>304.0</v>
       </c>
       <c r="K2">
         <v>100.0</v>
       </c>
       <c r="L2">
-        <v>147.9999999999999</v>
+        <v>147.99999999999983</v>
       </c>
       <c r="M2">
-        <v>441.4180437443629</v>
+        <v>450.89740864229304</v>
       </c>
       <c r="N2">
-        <v>99.99999999999994</v>
+        <v>100.0</v>
       </c>
       <c r="O2">
-        <v>99.99999999999989</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
-        <v>254.99999999999977</v>
+        <v>0.0</v>
       </c>
       <c r="Q2">
         <v>0.0</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>663.0015908371136</v>
       </c>
       <c r="S2">
-        <v>99.99999999999994</v>
+        <v>40.60235490182648</v>
       </c>
       <c r="T2">
         <v>0.0</v>
       </c>
       <c r="U2">
-        <v>100.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="V2">
-        <v>74.04503712519883</v>
+        <v>0.0</v>
       </c>
       <c r="W2">
         <v>0.0</v>
       </c>
       <c r="X2">
-        <v>89.12533333333333</v>
+        <v>81.16116851438237</v>
       </c>
       <c r="Y2">
-        <v>66.33333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="Z2">
-        <v>68.07410869272691</v>
+        <v>0.0</v>
       </c>
       <c r="AA2">
         <v>0.0</v>
@@ -10156,10 +10156,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>99.99999999999875</v>
+        <v>99.99999999999955</v>
       </c>
       <c r="C3">
-        <v>490.9999999999935</v>
+        <v>491.0</v>
       </c>
       <c r="D3">
         <v>492.0</v>
@@ -10168,10 +10168,10 @@
         <v>319.99999999999994</v>
       </c>
       <c r="F3">
-        <v>104.00000000000003</v>
+        <v>104.0</v>
       </c>
       <c r="G3">
-        <v>600.2130104042647</v>
+        <v>489.563022883897</v>
       </c>
       <c r="H3">
         <v>119.0</v>
@@ -10180,55 +10180,55 @@
         <v>5483.919999999999</v>
       </c>
       <c r="J3">
-        <v>303.99999999999994</v>
+        <v>304.0</v>
       </c>
       <c r="K3">
-        <v>100.0</v>
+        <v>99.99999999999986</v>
       </c>
       <c r="L3">
-        <v>147.99999999999957</v>
+        <v>148.0</v>
       </c>
       <c r="M3">
-        <v>417.14847131898523</v>
+        <v>419.03437744921644</v>
       </c>
       <c r="N3">
         <v>100.0</v>
       </c>
       <c r="O3">
-        <v>99.99999999999986</v>
+        <v>0.0</v>
       </c>
       <c r="P3">
-        <v>255.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3">
         <v>0.0</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>805.1999999999996</v>
       </c>
       <c r="S3">
+        <v>86.26902156849314</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
         <v>100.0</v>
       </c>
-      <c r="T3">
-        <v>0.0</v>
-      </c>
-      <c r="U3">
-        <v>99.99999999999997</v>
-      </c>
       <c r="V3">
-        <v>99.99999999999989</v>
+        <v>0.0</v>
       </c>
       <c r="W3">
         <v>0.0</v>
       </c>
       <c r="X3">
-        <v>136.0</v>
+        <v>128.035835181049</v>
       </c>
       <c r="Y3">
-        <v>99.99999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="Z3">
-        <v>99.74077535939357</v>
+        <v>0.0</v>
       </c>
       <c r="AA3">
         <v>0.0</v>
@@ -10264,7 +10264,7 @@
         <v>0.0</v>
       </c>
       <c r="AL3">
-        <v>20.000000000013642</v>
+        <v>0.0</v>
       </c>
       <c r="AM3">
         <v>0.0</v>
@@ -10506,31 +10506,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100.0</v>
+        <v>99.99999999999935</v>
       </c>
       <c r="C4">
         <v>491.0</v>
       </c>
       <c r="D4">
-        <v>491.9999999999993</v>
+        <v>491.9999999999999</v>
       </c>
       <c r="E4">
         <v>320.0</v>
       </c>
       <c r="F4">
-        <v>104.00000000000011</v>
+        <v>104.0</v>
       </c>
       <c r="G4">
         <v>707.0</v>
       </c>
       <c r="H4">
-        <v>118.99999999999994</v>
+        <v>119.0</v>
       </c>
       <c r="I4">
         <v>5455.617142857142</v>
       </c>
       <c r="J4">
-        <v>303.9999999999971</v>
+        <v>304.0</v>
       </c>
       <c r="K4">
         <v>100.0</v>
@@ -10542,43 +10542,43 @@
         <v>550.0</v>
       </c>
       <c r="N4">
-        <v>99.99999999999977</v>
+        <v>100.0</v>
       </c>
       <c r="O4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4">
-        <v>184.9872110327683</v>
+        <v>0.0</v>
       </c>
       <c r="Q4">
         <v>0.0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>596.8196589032655</v>
       </c>
       <c r="S4">
-        <v>99.99999999999997</v>
+        <v>66.00757463339443</v>
       </c>
       <c r="T4">
         <v>0.0</v>
       </c>
       <c r="U4">
-        <v>99.99999999999997</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="V4">
-        <v>60.333333333333215</v>
+        <v>0.0</v>
       </c>
       <c r="W4">
         <v>0.0</v>
       </c>
       <c r="X4">
-        <v>122.59374899220711</v>
+        <v>81.16116851438235</v>
       </c>
       <c r="Y4">
-        <v>66.33333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="Z4">
-        <v>68.0741086927269</v>
+        <v>0.0</v>
       </c>
       <c r="AA4">
         <v>0.0</v>
@@ -10856,13 +10856,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>99.99999999999889</v>
+        <v>99.9999999999998</v>
       </c>
       <c r="C5">
-        <v>490.9999999999991</v>
+        <v>491.0</v>
       </c>
       <c r="D5">
-        <v>492.0</v>
+        <v>491.9999999999993</v>
       </c>
       <c r="E5">
         <v>320.0</v>
@@ -10871,7 +10871,7 @@
         <v>104.0</v>
       </c>
       <c r="G5">
-        <v>706.9999999999994</v>
+        <v>707.0</v>
       </c>
       <c r="H5">
         <v>119.0</v>
@@ -10880,55 +10880,55 @@
         <v>5418.622857142855</v>
       </c>
       <c r="J5">
-        <v>303.99999999999824</v>
+        <v>304.0</v>
       </c>
       <c r="K5">
-        <v>100.0</v>
+        <v>99.99999999999986</v>
       </c>
       <c r="L5">
-        <v>147.9999999999995</v>
+        <v>147.99999999999974</v>
       </c>
       <c r="M5">
-        <v>550.0</v>
+        <v>549.9999999999999</v>
       </c>
       <c r="N5">
-        <v>100.0</v>
+        <v>99.99999999999983</v>
       </c>
       <c r="O5">
-        <v>99.99999999999923</v>
+        <v>0.0</v>
       </c>
       <c r="P5">
-        <v>254.99999999999827</v>
+        <v>0.0</v>
       </c>
       <c r="Q5">
         <v>0.0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>672.7589778093381</v>
       </c>
       <c r="S5">
-        <v>91.33333333333346</v>
+        <v>20.340907966727755</v>
       </c>
       <c r="T5">
         <v>0.0</v>
       </c>
       <c r="U5">
-        <v>97.9746025405892</v>
+        <v>20.0</v>
       </c>
       <c r="V5">
-        <v>58.28526073172378</v>
+        <v>0.0</v>
       </c>
       <c r="W5">
         <v>0.0</v>
       </c>
       <c r="X5">
-        <v>75.71908232554044</v>
+        <v>34.286501847715684</v>
       </c>
       <c r="Y5">
-        <v>32.66666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="Z5">
-        <v>36.407442026060245</v>
+        <v>0.0</v>
       </c>
       <c r="AA5">
         <v>0.0</v>
@@ -11206,19 +11206,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100.0</v>
+        <v>99.99999999999957</v>
       </c>
       <c r="C6">
         <v>490.9999999999995</v>
       </c>
       <c r="D6">
-        <v>491.9999999999985</v>
+        <v>491.9999999999986</v>
       </c>
       <c r="E6">
-        <v>319.99999999999807</v>
+        <v>320.0</v>
       </c>
       <c r="F6">
-        <v>104.00000000000014</v>
+        <v>104.0</v>
       </c>
       <c r="G6">
         <v>707.0</v>
@@ -11230,10 +11230,10 @@
         <v>5374.719999999997</v>
       </c>
       <c r="J6">
-        <v>303.9999999999998</v>
+        <v>304.0</v>
       </c>
       <c r="K6">
-        <v>99.99999999999903</v>
+        <v>100.0</v>
       </c>
       <c r="L6">
         <v>148.0</v>
@@ -11242,43 +11242,43 @@
         <v>550.0</v>
       </c>
       <c r="N6">
-        <v>99.99999999999932</v>
+        <v>100.0</v>
       </c>
       <c r="O6">
-        <v>99.99999999999832</v>
+        <v>0.0</v>
       </c>
       <c r="P6">
-        <v>254.9999999999988</v>
+        <v>0.0</v>
       </c>
       <c r="Q6">
         <v>0.0</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>579.9997003738374</v>
       </c>
       <c r="S6">
-        <v>45.666666666666885</v>
+        <v>20.0</v>
       </c>
       <c r="T6">
         <v>0.0</v>
       </c>
       <c r="U6">
-        <v>100.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="V6">
-        <v>97.95192739839045</v>
+        <v>0.0</v>
       </c>
       <c r="W6">
         <v>0.0</v>
       </c>
       <c r="X6">
-        <v>39.276407144353506</v>
+        <v>32.22863416890202</v>
       </c>
       <c r="Y6">
-        <v>32.66666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="Z6">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6">
         <v>0.0</v>
@@ -11428,7 +11428,7 @@
         <v>29.36108279221097</v>
       </c>
       <c r="BX6">
-        <v>26.573398235358695</v>
+        <v>26.5733982353587</v>
       </c>
       <c r="BY6">
         <v>31.348173509363587</v>
@@ -11556,19 +11556,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>99.99999999999974</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="C7">
-        <v>490.9999999999993</v>
+        <v>490.99999999999943</v>
       </c>
       <c r="D7">
         <v>491.9999999999999</v>
       </c>
       <c r="E7">
-        <v>319.99999999999966</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F7">
-        <v>104.00000000000017</v>
+        <v>104.0</v>
       </c>
       <c r="G7">
         <v>707.0</v>
@@ -11586,25 +11586,25 @@
         <v>100.0</v>
       </c>
       <c r="L7">
-        <v>85.93866666666338</v>
+        <v>85.93866666666695</v>
       </c>
       <c r="M7">
         <v>550.0</v>
       </c>
       <c r="N7">
-        <v>55.666666666666856</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="O7">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7">
-        <v>169.5749999999996</v>
+        <v>0.0</v>
       </c>
       <c r="Q7">
         <v>0.0</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>405.8255173489475</v>
       </c>
       <c r="S7">
         <v>0.0</v>
@@ -11613,22 +11613,22 @@
         <v>0.0</v>
       </c>
       <c r="U7">
-        <v>100.0</v>
+        <v>99.99999999999693</v>
       </c>
       <c r="V7">
-        <v>70.47915151784893</v>
+        <v>0.0</v>
       </c>
       <c r="W7">
         <v>0.0</v>
       </c>
       <c r="X7">
-        <v>46.87466666666717</v>
+        <v>79.10330083556869</v>
       </c>
       <c r="Y7">
-        <v>66.33333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="Z7">
-        <v>31.666666666666906</v>
+        <v>0.0</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
@@ -11733,7 +11733,7 @@
         <v>26.324897757865223</v>
       </c>
       <c r="BI7">
-        <v>31.57216366339398</v>
+        <v>31.572163663393983</v>
       </c>
       <c r="BJ7">
         <v>28.900005708541816</v>
@@ -11778,7 +11778,7 @@
         <v>31.311041464148985</v>
       </c>
       <c r="BX7">
-        <v>31.885295430504836</v>
+        <v>31.88529543050484</v>
       </c>
       <c r="BY7">
         <v>27.589131929774503</v>
@@ -11909,52 +11909,52 @@
         <v>100.0</v>
       </c>
       <c r="C8">
-        <v>482.85126175912035</v>
+        <v>491.0</v>
       </c>
       <c r="D8">
-        <v>491.999999999999</v>
+        <v>491.99999999999943</v>
       </c>
       <c r="E8">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F8">
-        <v>104.00000000000006</v>
+        <v>104.0</v>
       </c>
       <c r="G8">
-        <v>622.2337657493339</v>
+        <v>631.7189775372779</v>
       </c>
       <c r="H8">
-        <v>119.0</v>
+        <v>118.99999999999997</v>
       </c>
       <c r="I8">
         <v>5287.36</v>
       </c>
       <c r="J8">
-        <v>248.60635970951242</v>
+        <v>304.0</v>
       </c>
       <c r="K8">
-        <v>81.66666666666667</v>
+        <v>84.87727149724348</v>
       </c>
       <c r="L8">
         <v>0.0</v>
       </c>
       <c r="M8">
-        <v>390.50000000005355</v>
+        <v>390.5</v>
       </c>
       <c r="N8">
         <v>0.0</v>
       </c>
       <c r="O8">
-        <v>46.33333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="P8">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8">
         <v>0.0</v>
       </c>
       <c r="R8">
-        <v>0.0</v>
+        <v>310.05247151681874</v>
       </c>
       <c r="S8">
         <v>0.0</v>
@@ -11963,22 +11963,22 @@
         <v>0.0</v>
       </c>
       <c r="U8">
-        <v>100.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="V8">
-        <v>79.33333333332017</v>
+        <v>0.0</v>
       </c>
       <c r="W8">
         <v>0.0</v>
       </c>
       <c r="X8">
-        <v>93.74933333333384</v>
+        <v>89.12533333333333</v>
       </c>
       <c r="Y8">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8">
-        <v>63.33333333333357</v>
+        <v>0.0</v>
       </c>
       <c r="AA8">
         <v>0.0</v>
@@ -12256,34 +12256,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>99.99999999999972</v>
+        <v>100.0</v>
       </c>
       <c r="C9">
-        <v>490.99999999999943</v>
+        <v>453.8436934833695</v>
       </c>
       <c r="D9">
         <v>492.0</v>
       </c>
       <c r="E9">
-        <v>305.99427266493626</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F9">
-        <v>103.99999999999999</v>
+        <v>100.73165079857245</v>
       </c>
       <c r="G9">
-        <v>707.0</v>
+        <v>706.9999999999991</v>
       </c>
       <c r="H9">
-        <v>41.61033333333333</v>
+        <v>77.38966666666667</v>
       </c>
       <c r="I9">
         <v>5250.068571428569</v>
       </c>
       <c r="J9">
-        <v>75.32635970951279</v>
+        <v>155.7872784877071</v>
       </c>
       <c r="K9">
-        <v>20.0</v>
+        <v>23.210604830576813</v>
       </c>
       <c r="L9">
         <v>0.0</v>
@@ -12295,10 +12295,10 @@
         <v>0.0</v>
       </c>
       <c r="O9">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9">
         <v>0.0</v>
@@ -12310,25 +12310,25 @@
         <v>0.0</v>
       </c>
       <c r="T9">
-        <v>0.0</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="U9">
-        <v>94.19881193641072</v>
+        <v>100.0</v>
       </c>
       <c r="V9">
-        <v>39.6666666666535</v>
+        <v>0.0</v>
       </c>
       <c r="W9">
         <v>0.0</v>
       </c>
       <c r="X9">
-        <v>46.87466666666717</v>
+        <v>136.0</v>
       </c>
       <c r="Y9">
-        <v>66.33333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="Z9">
-        <v>31.666666666666902</v>
+        <v>0.0</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
@@ -12592,7 +12592,7 @@
         <v>65.322814724569</v>
       </c>
       <c r="DJ9">
-        <v>52.17190789713904</v>
+        <v>29.213457941089885</v>
       </c>
       <c r="DK9">
         <v>67.39375178696288</v>
@@ -12606,22 +12606,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>99.99999999999957</v>
+        <v>100.0</v>
       </c>
       <c r="C10">
         <v>491.0</v>
       </c>
       <c r="D10">
-        <v>491.9999999999998</v>
+        <v>491.99999999999994</v>
       </c>
       <c r="E10">
-        <v>319.9999999999999</v>
+        <v>320.0</v>
       </c>
       <c r="F10">
-        <v>72.31466666666662</v>
+        <v>72.31466666666668</v>
       </c>
       <c r="G10">
-        <v>654.668690142579</v>
+        <v>592.4088354123322</v>
       </c>
       <c r="H10">
         <v>0.0</v>
@@ -12663,7 +12663,7 @@
         <v>0.0</v>
       </c>
       <c r="U10">
-        <v>52.532145269744056</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="V10">
         <v>0.0</v>
@@ -12672,10 +12672,10 @@
         <v>0.0</v>
       </c>
       <c r="X10">
-        <v>0.0</v>
+        <v>89.12533333333332</v>
       </c>
       <c r="Y10">
-        <v>32.66666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="Z10">
         <v>0.0</v>
@@ -12783,7 +12783,7 @@
         <v>30.244213869359125</v>
       </c>
       <c r="BI10">
-        <v>32.688340333687776</v>
+        <v>32.68834033368778</v>
       </c>
       <c r="BJ10">
         <v>31.44268978391461</v>
@@ -12956,22 +12956,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100.0</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="C11">
-        <v>490.99999999999983</v>
+        <v>491.0</v>
       </c>
       <c r="D11">
-        <v>491.9999999999999</v>
+        <v>491.99999999999994</v>
       </c>
       <c r="E11">
-        <v>276.9909655238985</v>
+        <v>277.22289483148984</v>
       </c>
       <c r="F11">
-        <v>1.4210854715202004e-14</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>610.4461888782738</v>
+        <v>567.9635929040469</v>
       </c>
       <c r="H11">
         <v>0.0</v>
@@ -13013,7 +13013,7 @@
         <v>0.0</v>
       </c>
       <c r="U11">
-        <v>20.00000000000923</v>
+        <v>20.0</v>
       </c>
       <c r="V11">
         <v>0.0</v>
@@ -13022,7 +13022,7 @@
         <v>0.0</v>
       </c>
       <c r="X11">
-        <v>0.0</v>
+        <v>42.25066666666666</v>
       </c>
       <c r="Y11">
         <v>0.0</v>
@@ -13133,7 +13133,7 @@
         <v>28.85105525365166</v>
       </c>
       <c r="BI11">
-        <v>34.918818127216255</v>
+        <v>34.91881812721626</v>
       </c>
       <c r="BJ11">
         <v>30.967688403104592</v>
@@ -13178,7 +13178,7 @@
         <v>28.87875563453014</v>
       </c>
       <c r="BX11">
-        <v>30.861219240417057</v>
+        <v>30.86121924041706</v>
       </c>
       <c r="BY11">
         <v>29.155459951998964</v>
@@ -13306,22 +13306,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>99.99999999999983</v>
+        <v>100.0</v>
       </c>
       <c r="C12">
-        <v>491.0</v>
+        <v>490.9999999999943</v>
       </c>
       <c r="D12">
-        <v>491.99999999999875</v>
+        <v>491.9999999999996</v>
       </c>
       <c r="E12">
-        <v>319.99999999999994</v>
+        <v>320.0</v>
       </c>
       <c r="F12">
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>387.85657936094447</v>
+        <v>387.85657936102007</v>
       </c>
       <c r="H12">
         <v>0.0</v>
@@ -13656,22 +13656,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>99.99999999999991</v>
+        <v>99.99999999999916</v>
       </c>
       <c r="C13">
-        <v>490.9999999999998</v>
+        <v>491.0</v>
       </c>
       <c r="D13">
-        <v>491.9999999999988</v>
+        <v>468.87309843094965</v>
       </c>
       <c r="E13">
-        <v>298.501598527541</v>
+        <v>288.24645912353526</v>
       </c>
       <c r="F13">
         <v>0.0</v>
       </c>
       <c r="G13">
-        <v>204.07670331387087</v>
+        <v>237.40921831430651</v>
       </c>
       <c r="H13">
         <v>0.0</v>
@@ -13689,7 +13689,7 @@
         <v>0.0</v>
       </c>
       <c r="M13">
-        <v>143.91835198898752</v>
+        <v>143.96787796155996</v>
       </c>
       <c r="N13">
         <v>0.0</v>
@@ -14009,19 +14009,19 @@
         <v>100.0</v>
       </c>
       <c r="C14">
-        <v>475.002648445067</v>
+        <v>481.4055140419078</v>
       </c>
       <c r="D14">
-        <v>162.35999999999996</v>
+        <v>155.90760843059186</v>
       </c>
       <c r="E14">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F14">
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>141.39999999999998</v>
+        <v>141.4</v>
       </c>
       <c r="H14">
         <v>0.0</v>
@@ -14039,7 +14039,7 @@
         <v>0.0</v>
       </c>
       <c r="M14">
-        <v>424.4183519889875</v>
+        <v>424.46787796155996</v>
       </c>
       <c r="N14">
         <v>0.0</v>
@@ -14356,22 +14356,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99.99999999999986</v>
+        <v>100.0</v>
       </c>
       <c r="C15">
-        <v>491.0</v>
+        <v>487.41432031875024</v>
       </c>
       <c r="D15">
-        <v>254.16598965162854</v>
+        <v>257.84919454180533</v>
       </c>
       <c r="E15">
-        <v>319.99999999999994</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F15">
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>141.39999999999998</v>
+        <v>141.4</v>
       </c>
       <c r="H15">
         <v>0.0</v>
@@ -14389,7 +14389,7 @@
         <v>0.0</v>
       </c>
       <c r="M15">
-        <v>150.83933239846527</v>
+        <v>150.79927995836943</v>
       </c>
       <c r="N15">
         <v>0.0</v>
@@ -14578,7 +14578,7 @@
         <v>40.708185539494615</v>
       </c>
       <c r="BX15">
-        <v>43.61443849490058</v>
+        <v>43.61443849490059</v>
       </c>
       <c r="BY15">
         <v>41.719560854738056</v>
@@ -14656,7 +14656,7 @@
         <v>88.9234944184605</v>
       </c>
       <c r="CX15">
-        <v>69.19458673024957</v>
+        <v>69.13711396137819</v>
       </c>
       <c r="CY15">
         <v>84.78721832062062</v>
@@ -14706,13 +14706,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>99.99999999999963</v>
+        <v>99.99999999999974</v>
       </c>
       <c r="C16">
-        <v>490.9999999999991</v>
+        <v>491.0</v>
       </c>
       <c r="D16">
-        <v>205.12695129165405</v>
+        <v>205.12695129164433</v>
       </c>
       <c r="E16">
         <v>112.0</v>
@@ -14721,7 +14721,7 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>338.6329987750403</v>
+        <v>338.6329987749896</v>
       </c>
       <c r="H16">
         <v>0.0</v>
@@ -15056,16 +15056,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100.0</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="C17">
-        <v>355.99817306552137</v>
+        <v>355.9981730654754</v>
       </c>
       <c r="D17">
         <v>98.4</v>
       </c>
       <c r="E17">
-        <v>167.1065453030211</v>
+        <v>167.10654530294465</v>
       </c>
       <c r="F17">
         <v>0.0</v>
@@ -15239,7 +15239,7 @@
         <v>42.32248450548523</v>
       </c>
       <c r="BK17">
-        <v>41.58317378701588</v>
+        <v>41.58317378701587</v>
       </c>
       <c r="BL17">
         <v>45.797676649223256</v>
@@ -15278,7 +15278,7 @@
         <v>42.60813801529514</v>
       </c>
       <c r="BX17">
-        <v>41.75974881355876</v>
+        <v>41.759748813558765</v>
       </c>
       <c r="BY17">
         <v>39.56534118974157</v>
@@ -15406,13 +15406,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100.0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="C18">
-        <v>490.9999999999999</v>
+        <v>491.0</v>
       </c>
       <c r="D18">
-        <v>367.8124602046976</v>
+        <v>367.8124602046924</v>
       </c>
       <c r="E18">
         <v>320.0</v>
@@ -15421,7 +15421,7 @@
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>455.1826110016475</v>
+        <v>455.18261100165273</v>
       </c>
       <c r="H18">
         <v>0.0</v>
@@ -15439,7 +15439,7 @@
         <v>0.0</v>
       </c>
       <c r="M18">
-        <v>222.5517552450168</v>
+        <v>222.55175524501794</v>
       </c>
       <c r="N18">
         <v>0.0</v>
@@ -15762,19 +15762,19 @@
         <v>491.0</v>
       </c>
       <c r="D19">
-        <v>491.9999999999991</v>
+        <v>491.9999999999992</v>
       </c>
       <c r="E19">
         <v>320.0</v>
       </c>
       <c r="F19">
-        <v>72.31466666666665</v>
+        <v>72.31466666666648</v>
       </c>
       <c r="G19">
         <v>707.0</v>
       </c>
       <c r="H19">
-        <v>77.38966666666695</v>
+        <v>77.38966666666667</v>
       </c>
       <c r="I19">
         <v>4561.328571428572</v>
@@ -15789,7 +15789,7 @@
         <v>0.0</v>
       </c>
       <c r="M19">
-        <v>130.50845791346583</v>
+        <v>130.50845791348377</v>
       </c>
       <c r="N19">
         <v>0.0</v>
@@ -16112,34 +16112,34 @@
         <v>491.0</v>
       </c>
       <c r="D20">
-        <v>491.99999999999955</v>
+        <v>492.0</v>
       </c>
       <c r="E20">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F20">
-        <v>104.00000000000017</v>
+        <v>104.0</v>
       </c>
       <c r="G20">
         <v>707.0</v>
       </c>
       <c r="H20">
-        <v>119.0</v>
+        <v>118.99999999999999</v>
       </c>
       <c r="I20">
         <v>4510.405714285716</v>
       </c>
       <c r="J20">
-        <v>304.0</v>
+        <v>303.99999999999966</v>
       </c>
       <c r="K20">
-        <v>0.0</v>
+        <v>61.66666666666664</v>
       </c>
       <c r="L20">
         <v>0.0</v>
       </c>
       <c r="M20">
-        <v>354.152253334756</v>
+        <v>292.4855866680849</v>
       </c>
       <c r="N20">
         <v>0.0</v>
@@ -16456,40 +16456,40 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100.0</v>
+        <v>99.99999999999908</v>
       </c>
       <c r="C21">
-        <v>490.99999999999955</v>
+        <v>491.0</v>
       </c>
       <c r="D21">
-        <v>492.0</v>
+        <v>491.9999999999999</v>
       </c>
       <c r="E21">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F21">
-        <v>103.99999999999991</v>
+        <v>103.99999999999997</v>
       </c>
       <c r="G21">
-        <v>706.9999999999997</v>
+        <v>707.0</v>
       </c>
       <c r="H21">
-        <v>118.99999999999999</v>
+        <v>119.0</v>
       </c>
       <c r="I21">
         <v>4478.09142857143</v>
       </c>
       <c r="J21">
-        <v>303.9999999999999</v>
+        <v>304.0</v>
       </c>
       <c r="K21">
-        <v>61.66666666666695</v>
+        <v>100.0</v>
       </c>
       <c r="L21">
         <v>0.0</v>
       </c>
       <c r="M21">
-        <v>411.8415854904108</v>
+        <v>373.50825215705896</v>
       </c>
       <c r="N21">
         <v>0.0</v>
@@ -16657,7 +16657,7 @@
         <v>31.965544036514522</v>
       </c>
       <c r="BQ21">
-        <v>21.56962620197112</v>
+        <v>21.56962620197021</v>
       </c>
       <c r="BR21">
         <v>35.77313898566727</v>
@@ -16806,22 +16806,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>100.0</v>
+        <v>99.9999999999997</v>
       </c>
       <c r="C22">
         <v>491.0</v>
       </c>
       <c r="D22">
-        <v>491.9999999999996</v>
+        <v>492.0</v>
       </c>
       <c r="E22">
-        <v>320.0</v>
+        <v>319.99999999999983</v>
       </c>
       <c r="F22">
-        <v>103.99999999999997</v>
+        <v>104.0</v>
       </c>
       <c r="G22">
-        <v>706.9999999999993</v>
+        <v>707.0</v>
       </c>
       <c r="H22">
         <v>119.0</v>
@@ -16833,13 +16833,13 @@
         <v>304.0</v>
       </c>
       <c r="K22">
-        <v>99.99999999999989</v>
+        <v>87.26041158886693</v>
       </c>
       <c r="L22">
         <v>0.0</v>
       </c>
       <c r="M22">
-        <v>252.7006985039814</v>
+        <v>265.4402869151464</v>
       </c>
       <c r="N22">
         <v>0.0</v>
@@ -17156,22 +17156,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>99.99999999999912</v>
+        <v>100.0</v>
       </c>
       <c r="C23">
         <v>491.0</v>
       </c>
       <c r="D23">
-        <v>491.9999999999995</v>
+        <v>491.99999999999994</v>
       </c>
       <c r="E23">
-        <v>319.99999999999886</v>
+        <v>319.999999999999</v>
       </c>
       <c r="F23">
-        <v>104.00000000000001</v>
+        <v>103.99999999999984</v>
       </c>
       <c r="G23">
-        <v>706.9999999999993</v>
+        <v>707.0</v>
       </c>
       <c r="H23">
         <v>119.0</v>
@@ -17180,16 +17180,16 @@
         <v>4356.745714285717</v>
       </c>
       <c r="J23">
-        <v>265.688941014865</v>
+        <v>265.68894101487535</v>
       </c>
       <c r="K23">
-        <v>99.99999999999983</v>
+        <v>80.29362272058208</v>
       </c>
       <c r="L23">
         <v>0.0</v>
       </c>
       <c r="M23">
-        <v>241.3316335925853</v>
+        <v>261.03801087200367</v>
       </c>
       <c r="N23">
         <v>0.0</v>
@@ -17506,40 +17506,40 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>99.99999999999983</v>
+        <v>99.9999999999998</v>
       </c>
       <c r="C24">
-        <v>485.09134332765774</v>
+        <v>460.0650520970632</v>
       </c>
       <c r="D24">
         <v>492.0</v>
       </c>
       <c r="E24">
-        <v>320.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="F24">
-        <v>31.685333333333503</v>
+        <v>32.24980432715664</v>
       </c>
       <c r="G24">
-        <v>639.338534169236</v>
+        <v>598.6835090406707</v>
       </c>
       <c r="H24">
-        <v>118.99999999999999</v>
+        <v>119.0</v>
       </c>
       <c r="I24">
         <v>4292.451428571432</v>
       </c>
       <c r="J24">
-        <v>303.9999999999993</v>
+        <v>304.0</v>
       </c>
       <c r="K24">
-        <v>99.99999999999986</v>
+        <v>99.9999999999998</v>
       </c>
       <c r="L24">
         <v>0.0</v>
       </c>
       <c r="M24">
-        <v>508.2207197637955</v>
+        <v>541.5380108720037</v>
       </c>
       <c r="N24">
         <v>0.0</v>
@@ -17776,7 +17776,7 @@
         <v>0.0</v>
       </c>
       <c r="CN24">
-        <v>2.4573098654598198</v>
+        <v>34.25686412258984</v>
       </c>
       <c r="CO24">
         <v>31.222358591020246</v>
@@ -17856,19 +17856,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>99.99999999999937</v>
+        <v>99.99999999999972</v>
       </c>
       <c r="C25">
         <v>491.0</v>
       </c>
       <c r="D25">
-        <v>492.0</v>
+        <v>491.9999999999998</v>
       </c>
       <c r="E25">
-        <v>320.0</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="F25">
-        <v>104.00000000000014</v>
+        <v>104.0</v>
       </c>
       <c r="G25">
         <v>707.0</v>
@@ -17880,16 +17880,16 @@
         <v>4223.3657142857155</v>
       </c>
       <c r="J25">
-        <v>303.9999999999999</v>
+        <v>304.0</v>
       </c>
       <c r="K25">
-        <v>99.99999999999997</v>
+        <v>66.68270889176692</v>
       </c>
       <c r="L25">
         <v>0.0</v>
       </c>
       <c r="M25">
-        <v>227.72071976379556</v>
+        <v>261.03801087200367</v>
       </c>
       <c r="N25">
         <v>0.0</v>
@@ -18227,7 +18227,7 @@
         <v>118</v>
       </c>
       <c r="B2">
-        <v>1.9222022428008178e6</v>
+        <v>1.9231782334732858e6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18235,7 +18235,7 @@
         <v>119</v>
       </c>
       <c r="B3">
-        <v>157590.0</v>
+        <v>162096.0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -18243,7 +18243,7 @@
         <v>120</v>
       </c>
       <c r="B4">
-        <v>495990.0</v>
+        <v>500000.4000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -18251,7 +18251,7 @@
         <v>121</v>
       </c>
       <c r="B5">
-        <v>1.2686222428008183e6</v>
+        <v>1.2610818334732864e6</v>
       </c>
     </row>
   </sheetData>
